--- a/log/response_log.xlsx
+++ b/log/response_log.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin.t/Desktop/Projects/mhesi/test_result_analysis_recommendation_orchestrator_api/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B58E143-1C61-E241-88DC-A67A9889EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBC62A3B-F73A-654F-9705-97B1681A6150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{71E47B97-443C-F449-9D3D-356D656D0A60}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{71E47B97-443C-F449-9D3D-356D656D0A60}"/>
   </bookViews>
   <sheets>
     <sheet name="response_log_csv" sheetId="1" r:id="rId1"/>
+    <sheet name="response_log_csv (2)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'response_log_csv (2)'!$A$2:$AB$23</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
   <si>
     <t>test_case_no</t>
   </si>
@@ -194,12 +198,84 @@
   </si>
   <si>
     <t>num_incorrect_answers</t>
+  </si>
+  <si>
+    <t>data gathering</t>
+  </si>
+  <si>
+    <t>runtime range</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>num_weaknesses &lt; 5</t>
+  </si>
+  <si>
+    <t>course recommendation</t>
+  </si>
+  <si>
+    <t>&lt;10 sec</t>
+  </si>
+  <si>
+    <t>num_weaknesses &gt; 5</t>
+  </si>
+  <si>
+    <t>10-15 sec</t>
+  </si>
+  <si>
+    <t>num incorrect answers ~5/6</t>
+  </si>
+  <si>
+    <t>num incorrect answers ~10</t>
+  </si>
+  <si>
+    <t>num incorrect answers ~30</t>
+  </si>
+  <si>
+    <t>3 sec</t>
+  </si>
+  <si>
+    <t>test analysis (weakness extraction)</t>
+  </si>
+  <si>
+    <t>6-10 sec</t>
+  </si>
+  <si>
+    <t>user facing response</t>
+  </si>
+  <si>
+    <t>6-15 sec</t>
+  </si>
+  <si>
+    <t>11-25 sec</t>
+  </si>
+  <si>
+    <t>25-30 sec</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>num incorrect answers &lt; 5</t>
+  </si>
+  <si>
+    <t>num incorrect answers 5-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -343,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +611,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -696,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,6 +807,49 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965049F0-12A0-8941-B99B-D8FF17682C97}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3299,4 +3436,2025 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
+  <dimension ref="A1:AB43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="24.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="3.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="22.1640625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="14" max="14" width="17" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="17" max="17" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="18" max="18" width="23.5" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="19" max="19" width="3.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="22.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="20.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="11">
+        <v>29.840499999999999</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.0221</v>
+      </c>
+      <c r="M3" s="11">
+        <f>K3+L3</f>
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="N3" s="11">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="O3" s="11">
+        <v>10.3329</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="R3" s="11">
+        <v>10.764699999999999</v>
+      </c>
+      <c r="T3" s="1">
+        <v>487</v>
+      </c>
+      <c r="U3" s="1">
+        <v>161</v>
+      </c>
+      <c r="V3" s="1">
+        <v>296</v>
+      </c>
+      <c r="W3" s="1">
+        <v>232</v>
+      </c>
+      <c r="X3" s="1">
+        <v>296</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>232</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="11">
+        <v>24.503900000000002</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M4" s="11">
+        <f>K4+L4</f>
+        <v>2.5402</v>
+      </c>
+      <c r="N4" s="11">
+        <v>6.4363999999999999</v>
+      </c>
+      <c r="O4" s="11">
+        <v>6.0552999999999999</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>5.4214000000000002</v>
+      </c>
+      <c r="R4" s="11">
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>487</v>
+      </c>
+      <c r="U4" s="1">
+        <v>148</v>
+      </c>
+      <c r="V4" s="1">
+        <v>300</v>
+      </c>
+      <c r="W4" s="1">
+        <v>220</v>
+      </c>
+      <c r="X4" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>220</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="11">
+        <v>25.857900000000001</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.6840999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.0232000000000001</v>
+      </c>
+      <c r="M5" s="11">
+        <f>K5+L5</f>
+        <v>2.7073</v>
+      </c>
+      <c r="N5" s="11">
+        <v>7.6795999999999998</v>
+      </c>
+      <c r="O5" s="11">
+        <v>8.7030999999999992</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>8.1353000000000009</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6.7605000000000004</v>
+      </c>
+      <c r="T5" s="1">
+        <v>487</v>
+      </c>
+      <c r="U5" s="1">
+        <v>160</v>
+      </c>
+      <c r="V5" s="1">
+        <v>300</v>
+      </c>
+      <c r="W5" s="1">
+        <v>207</v>
+      </c>
+      <c r="X5" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>207</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="11">
+        <v>27.408100000000001</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.3975</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="M6" s="11">
+        <f>K6+L6</f>
+        <v>2.2448000000000001</v>
+      </c>
+      <c r="N6" s="11">
+        <v>7.4112</v>
+      </c>
+      <c r="O6" s="11">
+        <v>10.1774</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>8.4649000000000001</v>
+      </c>
+      <c r="R6" s="11">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="T6" s="1">
+        <v>788</v>
+      </c>
+      <c r="U6" s="1">
+        <v>268</v>
+      </c>
+      <c r="V6" s="1">
+        <v>572</v>
+      </c>
+      <c r="W6" s="1">
+        <v>460</v>
+      </c>
+      <c r="X6" s="1">
+        <v>286</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="11">
+        <v>22.1127</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.7395</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="M7" s="11">
+        <f>K7+L7</f>
+        <v>2.7595000000000001</v>
+      </c>
+      <c r="N7" s="11">
+        <v>9.6204000000000001</v>
+      </c>
+      <c r="O7" s="11">
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4.8125999999999998</v>
+      </c>
+      <c r="T7" s="1">
+        <v>794</v>
+      </c>
+      <c r="U7" s="1">
+        <v>202</v>
+      </c>
+      <c r="V7" s="1">
+        <v>294</v>
+      </c>
+      <c r="W7" s="1">
+        <v>228</v>
+      </c>
+      <c r="X7" s="1">
+        <v>294</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>228</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="11">
+        <v>29.0748</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.5277000000000001</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="M8" s="11">
+        <f>K8+L8</f>
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="N8" s="11">
+        <v>10.7882</v>
+      </c>
+      <c r="O8" s="11">
+        <v>8.2530999999999999</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>7.6355000000000004</v>
+      </c>
+      <c r="R8" s="11">
+        <v>7.5846999999999998</v>
+      </c>
+      <c r="T8" s="1">
+        <v>855</v>
+      </c>
+      <c r="U8" s="1">
+        <v>231</v>
+      </c>
+      <c r="V8" s="1">
+        <v>289</v>
+      </c>
+      <c r="W8" s="1">
+        <v>217</v>
+      </c>
+      <c r="X8" s="1">
+        <v>289</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>217</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="11">
+        <v>26.511099999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.6244000000000001</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.9103</v>
+      </c>
+      <c r="M9" s="11">
+        <f>K9+L9</f>
+        <v>2.5347</v>
+      </c>
+      <c r="N9" s="11">
+        <v>9.8414000000000001</v>
+      </c>
+      <c r="O9" s="11">
+        <v>9.6252999999999993</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>8.077</v>
+      </c>
+      <c r="R9" s="11">
+        <v>4.5091000000000001</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1135</v>
+      </c>
+      <c r="U9" s="1">
+        <v>557</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1149</v>
+      </c>
+      <c r="W9" s="1">
+        <v>872</v>
+      </c>
+      <c r="X9" s="1">
+        <v>287.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>218</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="13">
+        <v>36.6417</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.7568999999999999</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="M10" s="13">
+        <f>K10+L10</f>
+        <v>2.6948999999999996</v>
+      </c>
+      <c r="N10" s="13">
+        <v>12.5382</v>
+      </c>
+      <c r="O10" s="13">
+        <v>12.494300000000001</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>11.8475</v>
+      </c>
+      <c r="R10" s="13">
+        <v>8.9131999999999998</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1162</v>
+      </c>
+      <c r="U10" s="1">
+        <v>545</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1028</v>
+      </c>
+      <c r="W10" s="1">
+        <v>785</v>
+      </c>
+      <c r="X10" s="1">
+        <v>257</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>196.25</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="13">
+        <v>38.019799999999996</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="M11" s="13">
+        <f>K11+L11</f>
+        <v>2.8167999999999997</v>
+      </c>
+      <c r="N11" s="13">
+        <v>14.771699999999999</v>
+      </c>
+      <c r="O11" s="13">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>13.812200000000001</v>
+      </c>
+      <c r="R11" s="13">
+        <v>5.9924999999999997</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1162</v>
+      </c>
+      <c r="U11" s="1">
+        <v>562</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1028</v>
+      </c>
+      <c r="W11" s="1">
+        <v>814</v>
+      </c>
+      <c r="X11" s="1">
+        <v>257</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>203.5</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="13">
+        <v>36.7517</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="M12" s="13">
+        <f>K12+L12</f>
+        <v>2.6492</v>
+      </c>
+      <c r="N12" s="13">
+        <v>15.6648</v>
+      </c>
+      <c r="O12" s="13">
+        <v>10.7546</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.4481</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>10.1648</v>
+      </c>
+      <c r="R12" s="13">
+        <v>7.6822999999999997</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1158</v>
+      </c>
+      <c r="U12" s="1">
+        <v>476</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1042</v>
+      </c>
+      <c r="W12" s="1">
+        <v>780</v>
+      </c>
+      <c r="X12" s="1">
+        <v>260.5</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>195</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="13">
+        <v>35.828200000000002</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.6232</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.0330999999999999</v>
+      </c>
+      <c r="M13" s="13">
+        <f>K13+L13</f>
+        <v>2.6562999999999999</v>
+      </c>
+      <c r="N13" s="13">
+        <v>16.8873</v>
+      </c>
+      <c r="O13" s="13">
+        <v>9.5236000000000001</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>7.9451000000000001</v>
+      </c>
+      <c r="R13" s="13">
+        <v>6.7601000000000004</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1737</v>
+      </c>
+      <c r="U13" s="1">
+        <v>445</v>
+      </c>
+      <c r="V13" s="1">
+        <v>838</v>
+      </c>
+      <c r="W13" s="1">
+        <v>678</v>
+      </c>
+      <c r="X13" s="1">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>226</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="16">
+        <v>43.564700000000002</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.6375999999999999</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="M14" s="16">
+        <f>K14+L14</f>
+        <v>2.7117</v>
+      </c>
+      <c r="N14" s="16">
+        <v>21.645</v>
+      </c>
+      <c r="O14" s="16">
+        <v>12.289199999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>10.7524</v>
+      </c>
+      <c r="R14" s="16">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1234</v>
+      </c>
+      <c r="U14" s="1">
+        <v>578</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1425</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1111</v>
+      </c>
+      <c r="X14" s="1">
+        <v>285</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>222.2</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="11">
+        <v>27.6388</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1.3385</v>
+      </c>
+      <c r="M15" s="11">
+        <f>K15+L15</f>
+        <v>2.9622999999999999</v>
+      </c>
+      <c r="N15" s="11">
+        <v>11.053800000000001</v>
+      </c>
+      <c r="O15" s="11">
+        <v>7.8822999999999999</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>7.3109000000000002</v>
+      </c>
+      <c r="R15" s="11">
+        <v>5.7397999999999998</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1305</v>
+      </c>
+      <c r="U15" s="1">
+        <v>442</v>
+      </c>
+      <c r="V15" s="1">
+        <v>841</v>
+      </c>
+      <c r="W15" s="1">
+        <v>617</v>
+      </c>
+      <c r="X15" s="1">
+        <v>280.33333333333297</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>205.666666666666</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="13">
+        <v>33.251600000000003</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.4234</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="M16" s="13">
+        <f>K16+L16</f>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="N16" s="13">
+        <v>13.706200000000001</v>
+      </c>
+      <c r="O16" s="13">
+        <v>9.2213999999999992</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.4093</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>8.6508000000000003</v>
+      </c>
+      <c r="R16" s="13">
+        <v>7.8621999999999996</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1328</v>
+      </c>
+      <c r="U16" s="1">
+        <v>586</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1152</v>
+      </c>
+      <c r="W16" s="1">
+        <v>902</v>
+      </c>
+      <c r="X16" s="1">
+        <v>288</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>225.5</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="11">
+        <v>29.283000000000001</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.7356</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="M17" s="11">
+        <f>K17+L17</f>
+        <v>2.5678000000000001</v>
+      </c>
+      <c r="N17" s="11">
+        <v>11.662000000000001</v>
+      </c>
+      <c r="O17" s="11">
+        <v>9.4343000000000004</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.4345</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>8.0478000000000005</v>
+      </c>
+      <c r="R17" s="11">
+        <v>5.6180000000000003</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1667</v>
+      </c>
+      <c r="U17" s="1">
+        <v>676</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1312</v>
+      </c>
+      <c r="W17" s="1">
+        <v>985</v>
+      </c>
+      <c r="X17" s="1">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>197</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="13">
+        <v>32.470399999999998</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="M18" s="13">
+        <f>K18+L18</f>
+        <v>2.1454</v>
+      </c>
+      <c r="N18" s="13">
+        <v>14.038600000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <v>9.73</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>8.5277999999999992</v>
+      </c>
+      <c r="R18" s="13">
+        <v>6.5545999999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1746</v>
+      </c>
+      <c r="U18" s="1">
+        <v>562</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1113</v>
+      </c>
+      <c r="W18" s="1">
+        <v>856</v>
+      </c>
+      <c r="X18" s="1">
+        <v>278.25</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>214</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="13">
+        <v>35.219200000000001</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.5205</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="M19" s="13">
+        <f>K19+L19</f>
+        <v>2.3864999999999998</v>
+      </c>
+      <c r="N19" s="13">
+        <v>14.188800000000001</v>
+      </c>
+      <c r="O19" s="13">
+        <v>11.678599999999999</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.3972</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>10.6243</v>
+      </c>
+      <c r="R19" s="13">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1649</v>
+      </c>
+      <c r="U19" s="1">
+        <v>491</v>
+      </c>
+      <c r="V19" s="1">
+        <v>849</v>
+      </c>
+      <c r="W19" s="1">
+        <v>663</v>
+      </c>
+      <c r="X19" s="1">
+        <v>283</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>221</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>9</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="20">
+        <v>42.935400000000001</v>
+      </c>
+      <c r="K20" s="20">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="M20" s="20">
+        <f>K20+L20</f>
+        <v>2.8307000000000002</v>
+      </c>
+      <c r="N20" s="20">
+        <v>21.552600000000002</v>
+      </c>
+      <c r="O20" s="20">
+        <v>9.7521000000000004</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>8.1346000000000007</v>
+      </c>
+      <c r="R20" s="20">
+        <v>8.7988999999999997</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="19">
+        <v>1803</v>
+      </c>
+      <c r="U20" s="19">
+        <v>920</v>
+      </c>
+      <c r="V20" s="19">
+        <v>1458</v>
+      </c>
+      <c r="W20" s="19">
+        <v>1174</v>
+      </c>
+      <c r="X20" s="19">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>234.8</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15">
+        <v>5</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="16">
+        <v>49.535699999999999</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="M21" s="16">
+        <f>K21+L21</f>
+        <v>2.9837000000000002</v>
+      </c>
+      <c r="N21" s="16">
+        <v>25.7651</v>
+      </c>
+      <c r="O21" s="16">
+        <v>9.3183000000000007</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>8.0381</v>
+      </c>
+      <c r="R21" s="16">
+        <v>11.467499999999999</v>
+      </c>
+      <c r="T21" s="1">
+        <v>5553</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1599</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1431</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1103</v>
+      </c>
+      <c r="X21" s="1">
+        <v>286.2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>220.6</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="16">
+        <v>50.580199999999998</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.5225</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="M22" s="16">
+        <f>K22+L22</f>
+        <v>2.4708999999999999</v>
+      </c>
+      <c r="N22" s="16">
+        <v>25.273800000000001</v>
+      </c>
+      <c r="O22" s="16">
+        <v>12.363</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.4556</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>11.8233</v>
+      </c>
+      <c r="R22" s="16">
+        <v>10.471399999999999</v>
+      </c>
+      <c r="T22" s="1">
+        <v>5893</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1568</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1423</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1159</v>
+      </c>
+      <c r="X22" s="1">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>231.8</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="15">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
+        <v>3</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="16">
+        <v>50.623600000000003</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.7739</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="M23" s="16">
+        <f>K23+L23</f>
+        <v>2.8231000000000002</v>
+      </c>
+      <c r="N23" s="16">
+        <v>30.735800000000001</v>
+      </c>
+      <c r="O23" s="16">
+        <v>10.813599999999999</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>10.1661</v>
+      </c>
+      <c r="R23" s="16">
+        <v>6.2497999999999996</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5893</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1284</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1390</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1091</v>
+      </c>
+      <c r="X23" s="1">
+        <v>278</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>218.2</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1">
+        <f>AVERAGE(J3:J23)</f>
+        <v>34.65014285714286</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K25:R25" si="0">AVERAGE(K3:K23)</f>
+        <v>1.6348190476190474</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98398095238095229</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>14.638257142857142</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8933238095238085</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43128571428571433</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9122619047619054</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4985476190476179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="1">
+        <f>MIN(J3:J23)</f>
+        <v>22.1127</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26:R26" si="1">MIN(K3:K23)</f>
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5091000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="1">
+        <f>MAX(J3:J23)</f>
+        <v>50.623600000000003</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ref="K27:R27" si="2">MAX(K3:K23)</f>
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3385</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>30.735800000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>14.437900000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>13.812200000000001</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="2"/>
+        <v>11.467499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AB23" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB23">
+      <sortCondition ref="AA2:AA23"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="T1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/log/response_log.xlsx
+++ b/log/response_log.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin.t/Desktop/Projects/mhesi/test_result_analysis_recommendation_orchestrator_api/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CBC62A3B-F73A-654F-9705-97B1681A6150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1C5EA3F-B7A3-8F45-B9F8-F2C0F3A705FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{71E47B97-443C-F449-9D3D-356D656D0A60}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{71E47B97-443C-F449-9D3D-356D656D0A60}"/>
   </bookViews>
   <sheets>
     <sheet name="response_log_csv" sheetId="1" r:id="rId1"/>
     <sheet name="response_log_csv (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="response_log_csv (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="response_log_csv (4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'response_log_csv (2)'!$A$2:$AB$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'response_log_csv (2)'!$A$2:$AJ$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'response_log_csv (3)'!$A$2:$AJ$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'response_log_csv (4)'!$A$3:$AG$24</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="181">
   <si>
     <t>test_case_no</t>
   </si>
@@ -267,14 +271,393 @@
   </si>
   <si>
     <t>num incorrect answers 5-10</t>
+  </si>
+  <si>
+    <t>Computer Science 101</t>
+  </si>
+  <si>
+    <t>TOEIC Part5 Sample Test</t>
+  </si>
+  <si>
+    <t>Logic and Reasoning Sample Test I</t>
+  </si>
+  <si>
+    <t>Logic and Reasoning Sample Test II</t>
+  </si>
+  <si>
+    <t>Business Administration 101</t>
+  </si>
+  <si>
+    <t>Business Administration Sample Test I</t>
+  </si>
+  <si>
+    <t>Accounting 101</t>
+  </si>
+  <si>
+    <t>Information Technology 101</t>
+  </si>
+  <si>
+    <t>Information Technology Sample Test I</t>
+  </si>
+  <si>
+    <t>English Sample Test I</t>
+  </si>
+  <si>
+    <t>English Sample Test II</t>
+  </si>
+  <si>
+    <t>Personal Development Quiz</t>
+  </si>
+  <si>
+    <t>IT &amp; Infrastructure 101</t>
+  </si>
+  <si>
+    <t>IT &amp; Infrastructure Sample Test I</t>
+  </si>
+  <si>
+    <t>Reasoning &amp; Literacy Quiz</t>
+  </si>
+  <si>
+    <t>Reasoning &amp; Literacy 101</t>
+  </si>
+  <si>
+    <t>Music Knowledge 101</t>
+  </si>
+  <si>
+    <t>test_title</t>
+  </si>
+  <si>
+    <t>run_xxx</t>
+  </si>
+  <si>
+    <t>run_6f02503532ec411491b4717a57dc3a3b</t>
+  </si>
+  <si>
+    <t>run_10d85811fe4b4cd086c3d4678c1ae048</t>
+  </si>
+  <si>
+    <t>run_95c399e777134e25ab118d37fe49d025</t>
+  </si>
+  <si>
+    <t>run_5b7a17fe176144e3bded7e5f59cd0a22</t>
+  </si>
+  <si>
+    <t>run_0ce1a116c0e840b2a6901d9f7af209a5</t>
+  </si>
+  <si>
+    <t>run_9fcaed5c13ba4304b4b3bbcd00b6769e</t>
+  </si>
+  <si>
+    <t>run_2cb873008c774082b5c6b99a591cdbe2</t>
+  </si>
+  <si>
+    <t>run_91f3c75a4cd449e0bd93e55f70ae359e</t>
+  </si>
+  <si>
+    <t>run_ef7a62d18e3f4c718802dd89ad2478f4</t>
+  </si>
+  <si>
+    <t>run_cda36154391c4f42a2fa2b94b3045ef3</t>
+  </si>
+  <si>
+    <t>run_a521d7c3439344ae812fc3c8f3ba347d</t>
+  </si>
+  <si>
+    <t>run_3b42f8739d9948d1a8c90818d002c67a</t>
+  </si>
+  <si>
+    <t>run_a8107c99ac1f46e890ebcf3ff03859a2</t>
+  </si>
+  <si>
+    <t>run_c06a9e8bbd674d2f86f2e261ae42061f</t>
+  </si>
+  <si>
+    <t>run_d9c62ca6994f4333b0dec27003fc80db</t>
+  </si>
+  <si>
+    <t>run_9e7bef5e03434a56810b1e824a7e211c</t>
+  </si>
+  <si>
+    <t>run_851904bc28444d43a23d156a92ad1b36</t>
+  </si>
+  <si>
+    <t>run_ff340a733e2c45faa1b5f012995ce96d</t>
+  </si>
+  <si>
+    <t>run_438dd731ee8f453baa9eb8f24d9229f3</t>
+  </si>
+  <si>
+    <t>run_f696a5c20b46471f8779dffa15f3135c</t>
+  </si>
+  <si>
+    <t>run_d327f2b4de2a4a348e489b60e0f5cf8f</t>
+  </si>
+  <si>
+    <t>run_efb9fbd73df742e481d41976fdfd3219</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Answered domains</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>[all - correct] toeic</t>
+  </si>
+  <si>
+    <t>[all - correct] python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2 - incorrect] toeic, algebra; </t>
+  </si>
+  <si>
+    <t>NOPE</t>
+  </si>
+  <si>
+    <t>[all - correct] mngt, accounting</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>[all related]</t>
+  </si>
+  <si>
+    <t>[all - correct]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2 - incorrect] data science, statistics; </t>
+  </si>
+  <si>
+    <t>[mixed - unclear]</t>
+  </si>
+  <si>
+    <t>[all - related]</t>
+  </si>
+  <si>
+    <t>[no recommendation]</t>
+  </si>
+  <si>
+    <t>[incorrect]</t>
+  </si>
+  <si>
+    <t>Extracted Weaknesses</t>
+  </si>
+  <si>
+    <t>Recommended Courses</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>2: Distinguishing Management Functions: Planning vs. Controlling
+1: Understanding Cost Classifications: Controllable vs. Uncontrollable Costs
+1: Identifying Characteristics of Leadership Styles
+1: Grasping Foundational Strategic Planning Concepts</t>
+  </si>
+  <si>
+    <t>W1: Project Management Life Cycle (0.9)
+W2: Accounting and Finance (0.95)</t>
+  </si>
+  <si>
+    <t>1: Misunderstanding of the Fundamental Accounting Equation
+2: Confusion in Classifying Accounting Elements
+3: Lack of Understanding of Financial Audit Objectives</t>
+  </si>
+  <si>
+    <t>W1: Accounting and Finance (1.0)
+W1: Introduction to Corporate Finance (0.8)</t>
+  </si>
+  <si>
+    <t>2: Misunderstanding of DevOps Core Principles
+1: Confusion Regarding VPN Functionality</t>
+  </si>
+  <si>
+    <t>W1: Agile Software Development (0.9)
+W1: Migrating to the AWS Cloud (0.8)
+W2: Introduction to Networking (0.95)
+W2: Introduction to Cybersecurity (0.9)</t>
+  </si>
+  <si>
+    <t>3: Misunderstanding of Core DevOps and System Design Concepts</t>
+  </si>
+  <si>
+    <t>W1: Migrating to the AWS Cloud (0.9)
+W1: Agile Software Development (0.8)</t>
+  </si>
+  <si>
+    <t>1: Python string slicing: Misinterpretation of the stop (exclusive) index.</t>
+  </si>
+  <si>
+    <t>W1: Programming for Everybody (Getting Started with Python) (0.95)
+W1: Computing in Python I: Fundamentals and Procedural Programming (0.95)
+W1: Python Basics for Data Science (0.9)</t>
+  </si>
+  <si>
+    <t>1: Python string slicing 'stop' index misinterpretation</t>
+  </si>
+  <si>
+    <t>W1: Programming for Everybody (Getting Started with Python) (0.95)
+W1: Computing in Python I: Fundamentals and Procedural Programming (0.95)</t>
+  </si>
+  <si>
+    <t>2: Misinterpreting logical relationships between clauses (Conjunctive Adverbs)
+1: Difficulty forming correct passive voice constructions
+1: Incorrect application of relative pronouns
+1: Errors with singular/plural forms of abstract nouns</t>
+  </si>
+  <si>
+    <t>W1: Conjunctions &amp; Sentence Structure (0.98)
+W1: Connectors &amp; Transition Signals (0.98)
+W2: Verbs &amp; Tenses for TOEIC Part 5 (0.9)
+W3: Noun Clauses &amp; Relative Pronouns (1.0)
+W4: Countable &amp; Uncountable Nouns for TOEIC (1.0)</t>
+  </si>
+  <si>
+    <t>2: Misidentifying Necessary Assumptions
+2: Ineffective Argument Strengthening
+1: Rule-Based Problem Solving &amp; Interpretation</t>
+  </si>
+  <si>
+    <t>W2: Modifiers &amp; Sentence Logic (0.95)
+W2: Principles of Microeconomics: An Economist Way of Thinking (0.75)
+W3: Introduction to Algebra (1.0)
+W3: Drones and Autonomous Systems 2: Applications in Emergency Management (0.9)</t>
+  </si>
+  <si>
+    <t>5: Misunderstanding of core business concept definitions and purposes.
+2: Confusion between specific organizational management terminology and characteristics.
+1: Difficulty classifying controllable versus uncontrollable costs.</t>
+  </si>
+  <si>
+    <t>W1: Introduction to Corporate Finance (0.95)
+W1: Accounting and Finance (0.95)
+W2: Project Management Life Cycle (0.9)
+W2: Innovation Strategies for Electric Mobility: The StreetScooter Case (0.8)</t>
+  </si>
+  <si>
+    <t>1: Misunderstanding of Register and Tone
+2: Inconsistent Subject-Verb Agreement
+1: Confusion in Identifying Basic Parts of Speech
+1: Incorrect Usage of Prepositions in Common Collocations</t>
+  </si>
+  <si>
+    <t>W1: English Grammar and Style (0.95)
+W2: Verbs &amp; Tenses for TOEIC Part 5 (0.95)
+W3: Countable &amp; Uncountable Nouns for TOEIC (1.0)
+W3: Noun Clauses &amp; Relative Pronouns (1.0)
+W4: Prepositions in Business English (1.0)</t>
+  </si>
+  <si>
+    <t>2: Misunderstanding of Project Lifecycle Stages and Initial Documentation Purpose
+2: Fundamental Misinterpretation of Core Governance &amp; Management Principles
+1: Incomplete Understanding of Risk Management Scope and Strategies
+1: Confusion Between Public and Private Sector Financial Concepts</t>
+  </si>
+  <si>
+    <t>W1: Project Management Life Cycle (0.95)
+W1: Agile Software Development (0.88)
+W4: Introduction to Corporate Finance (0.9)</t>
+  </si>
+  <si>
+    <t>2: Misinterprets common dynamic and tempo terms.
+2: Confuses fundamental notation symbols with other structural markings.
+2: Lacks understanding of core music theory concepts
+2: Inaccurate factual recall for musical conventions and instrument classification</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>4: Difficulty with logical inference, specifically overgeneralizing from 'some' to 'all'.
+4: Inability to identify multiplicative patterns in numerical series.
+4: Misunderstanding the purpose and function of HTTPS.
+4: Poor understanding of strong password creation principles.
+4: Narrow or incorrect definition of digital literacy
+4: Confusion regarding the intent and mechanics of phishing attacks.
+3: Misinterpretation of basic Boolean logic, specifically the 'OR' operator
+3: Lack of understanding of Two-Factor Authentication (2FA) mechanisms.</t>
+  </si>
+  <si>
+    <t>W1: Modifiers &amp; Sentence Logic (0.9)
+W2: Maths Essentials (0.95)
+W2: Introduction to Algebra (0.9)
+W4: Introduction to Cybersecurity (1.0)
+W5: Blockchain and FinTech: Basics, Applications, and Limitations (0.9)</t>
+  </si>
+  <si>
+    <t>4: Difficulty with Deductive Reasoning and Quantifiers
+4: Inability to Recognize Geometric Progressions in Number Series
+4: Misunderstanding of HTTPS and Secure Connections
+4: Insufficient Knowledge of Strong Password Best Practices
+4: Limited Understanding of Digital Literacy Scope
+4: Failure to Identify Malicious Intent of Phishing
+4: Misinterpretation of Logical OR Operator
+4: Confusion Regarding Two-Factor Authentication Mechanisms</t>
+  </si>
+  <si>
+    <t>W1: Modifiers &amp; Sentence Logic (0.9)
+W2: Maths Essentials (0.95)
+W2: Introduction to Algebra (0.9)
+W4: Introduction to Cybersecurity (0.95)
+W5: Social Media: How Media Got Social (0.95)</t>
+  </si>
+  <si>
+    <t>4: Difficulty drawing correct inferences from categorical statements.
+4: Inability to identify multiplicative patterns in number sequences
+16: Misunderstanding core concepts of digital security and online safety
+4: Narrow understanding of the concept of digital literacy
+4: Confusion regarding the truth conditions of the logical OR operator</t>
+  </si>
+  <si>
+    <t>W1: Modifiers &amp; Sentence Logic (0.95)
+W2: Introduction to Algebra (0.95)
+W2: Maths Essentials (0.9)
+W3: Introduction to Cybersecurity (1.0)
+W4: Social Media: How Media Got Social (1.0)</t>
+  </si>
+  <si>
+    <t>Test Analysis</t>
+  </si>
+  <si>
+    <t>Rerank Course(s) - Avg</t>
+  </si>
+  <si>
+    <t>Rerank Course(s) - Total</t>
+  </si>
+  <si>
+    <t>User Facing Response</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -746,8 +1129,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -790,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -850,50 +1234,83 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1228,13 +1645,13 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="24.1640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -3440,46 +3857,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
-  <dimension ref="A1:AB43"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="24.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="3.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="22.1640625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="14" max="14" width="17" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="25" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="17" max="17" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="18" max="18" width="23.5" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="19" max="19" width="3.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="22.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="20.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.33203125" customWidth="1"/>
-    <col min="28" max="28" width="13.5" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="33.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="24.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="15" max="15" width="16.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="19" max="19" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="20" max="20" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="21" max="21" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="22.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="23.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="21.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="22.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="20.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="21.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="20.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.83203125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="59.6640625" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
@@ -3488,30 +3914,33 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3522,1646 +3951,6835 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="25">
+        <v>26.511099999999999</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.6244000000000001</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.9103</v>
+      </c>
+      <c r="O3" s="11">
+        <f>M3+N3</f>
+        <v>2.5347</v>
+      </c>
+      <c r="P3" s="11">
+        <v>9.8414000000000001</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>9.6252999999999993</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="S3" s="7">
+        <v>8.077</v>
+      </c>
+      <c r="T3" s="11">
+        <v>4.5091000000000001</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1135</v>
+      </c>
+      <c r="W3" s="7">
+        <v>557</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1149</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>872</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>287.25</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>218</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="D4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="11">
-        <v>29.840499999999999</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1.5773999999999999</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1.0221</v>
-      </c>
-      <c r="M3" s="11">
-        <f>K3+L3</f>
-        <v>2.5994999999999999</v>
-      </c>
-      <c r="N3" s="11">
-        <v>6.1425000000000001</v>
-      </c>
-      <c r="O3" s="11">
-        <v>10.3329</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.42030000000000001</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>9.2669999999999995</v>
-      </c>
-      <c r="R3" s="11">
-        <v>10.764699999999999</v>
-      </c>
-      <c r="T3" s="1">
+      <c r="L4" s="20">
+        <v>25.857900000000001</v>
+      </c>
+      <c r="M4" s="20">
+        <v>1.6840999999999999</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1.0232000000000001</v>
+      </c>
+      <c r="O4" s="20">
+        <f>M4+N4</f>
+        <v>2.7073</v>
+      </c>
+      <c r="P4" s="20">
+        <v>7.6795999999999998</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>8.7030999999999992</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="S4" s="20">
+        <v>8.1353000000000009</v>
+      </c>
+      <c r="T4" s="20">
+        <v>6.7605000000000004</v>
+      </c>
+      <c r="V4" s="19">
         <v>487</v>
       </c>
-      <c r="U3" s="1">
-        <v>161</v>
-      </c>
-      <c r="V3" s="1">
-        <v>296</v>
-      </c>
-      <c r="W3" s="1">
-        <v>232</v>
-      </c>
-      <c r="X3" s="1">
-        <v>296</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>232</v>
-      </c>
-      <c r="Z3" s="9">
+      <c r="W4" s="19">
+        <v>160</v>
+      </c>
+      <c r="X4" s="19">
+        <v>300</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>207</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>300</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>207</v>
+      </c>
+      <c r="AB4" s="19">
         <v>1</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AC4" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="11">
-        <v>24.503900000000002</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="M4" s="11">
-        <f>K4+L4</f>
-        <v>2.5402</v>
-      </c>
-      <c r="N4" s="11">
-        <v>6.4363999999999999</v>
-      </c>
-      <c r="O4" s="11">
-        <v>6.0552999999999999</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>5.4214000000000002</v>
-      </c>
-      <c r="R4" s="11">
-        <v>9.4710000000000001</v>
-      </c>
-      <c r="T4" s="1">
-        <v>487</v>
-      </c>
-      <c r="U4" s="1">
-        <v>148</v>
-      </c>
-      <c r="V4" s="1">
-        <v>300</v>
-      </c>
-      <c r="W4" s="1">
-        <v>220</v>
-      </c>
-      <c r="X4" s="1">
-        <v>300</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>220</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="25">
+        <v>27.6388</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.3385</v>
+      </c>
+      <c r="O5" s="11">
+        <f>M5+N5</f>
+        <v>2.9622999999999999</v>
+      </c>
+      <c r="P5" s="11">
+        <v>11.053800000000001</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>7.8822999999999999</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="S5" s="7">
+        <v>7.3109000000000002</v>
+      </c>
+      <c r="T5" s="11">
+        <v>5.7397999999999998</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1305</v>
+      </c>
+      <c r="W5" s="7">
+        <v>442</v>
+      </c>
+      <c r="X5" s="7">
+        <v>841</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>617</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>280.33333333333297</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>205.666666666666</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="11">
+        <v>29.0748</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.5277000000000001</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="O6" s="11">
+        <f>M6+N6</f>
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10.7882</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>8.2530999999999999</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>7.6355000000000004</v>
+      </c>
+      <c r="T6" s="11">
+        <v>7.5846999999999998</v>
+      </c>
+      <c r="V6" s="1">
+        <v>855</v>
+      </c>
+      <c r="W6" s="1">
+        <v>231</v>
+      </c>
+      <c r="X6" s="1">
+        <v>289</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>217</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>289</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>217</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="21">
+        <v>27.408100000000001</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1.3975</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="O7" s="20">
+        <f>M7+N7</f>
+        <v>2.2448000000000001</v>
+      </c>
+      <c r="P7" s="20">
+        <v>7.4112</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>10.1774</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="S7" s="20">
+        <v>8.4649000000000001</v>
+      </c>
+      <c r="T7" s="20">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="V7" s="20">
+        <v>788</v>
+      </c>
+      <c r="W7" s="20">
+        <v>268</v>
+      </c>
+      <c r="X7" s="20">
+        <v>572</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>460</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>286</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>230</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="25">
+        <v>22.1127</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.7395</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="O8" s="11">
+        <f>M8+N8</f>
+        <v>2.7595000000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9.6204000000000001</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T8" s="11">
+        <v>4.8125999999999998</v>
+      </c>
+      <c r="V8" s="7">
+        <v>794</v>
+      </c>
+      <c r="W8" s="7">
+        <v>202</v>
+      </c>
+      <c r="X8" s="7">
+        <v>294</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>228</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>294</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>228</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3</v>
+      <c r="D9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="21">
+        <v>24.503900000000002</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="N9" s="20">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O9" s="20">
+        <f>M9+N9</f>
+        <v>2.5402</v>
+      </c>
+      <c r="P9" s="20">
+        <v>6.4363999999999999</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>6.0552999999999999</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="S9" s="20">
+        <v>5.4214000000000002</v>
+      </c>
+      <c r="T9" s="20">
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="V9" s="20">
+        <v>487</v>
+      </c>
+      <c r="W9" s="20">
+        <v>148</v>
+      </c>
+      <c r="X9" s="20">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>220</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>220</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="20">
+        <v>43.564700000000002</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1.6375999999999999</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="O10" s="20">
+        <f>M10+N10</f>
+        <v>2.7117</v>
+      </c>
+      <c r="P10" s="20">
+        <v>21.645</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>12.289199999999999</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="S10" s="20">
+        <v>10.7524</v>
+      </c>
+      <c r="T10" s="20">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1234</v>
+      </c>
+      <c r="W10" s="19">
+        <v>578</v>
+      </c>
+      <c r="X10" s="19">
+        <v>1425</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>1111</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>285</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>222.2</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="19"/>
+      <c r="AF10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="20">
+        <v>42.935400000000001</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="O11" s="20">
+        <f>M11+N11</f>
+        <v>2.8307000000000002</v>
+      </c>
+      <c r="P11" s="20">
+        <v>21.552600000000002</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>9.7521000000000004</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="S11" s="20">
+        <v>8.1346000000000007</v>
+      </c>
+      <c r="T11" s="20">
+        <v>8.7988999999999997</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1803</v>
+      </c>
+      <c r="W11" s="19">
+        <v>920</v>
+      </c>
+      <c r="X11" s="19">
+        <v>1458</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>1174</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>234.8</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="19"/>
+      <c r="AF11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11">
+        <v>29.283000000000001</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.7356</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="O12" s="11">
+        <f>M12+N12</f>
+        <v>2.5678000000000001</v>
+      </c>
+      <c r="P12" s="11">
+        <v>11.662000000000001</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>9.4343000000000004</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.4345</v>
+      </c>
+      <c r="S12" s="7">
+        <v>8.0478000000000005</v>
+      </c>
+      <c r="T12" s="11">
+        <v>5.6180000000000003</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1667</v>
+      </c>
+      <c r="W12" s="1">
+        <v>676</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1312</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>985</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>197</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="25">
+        <v>29.840499999999999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1.0221</v>
+      </c>
+      <c r="O13" s="11">
+        <f>M13+N13</f>
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="P13" s="11">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>10.3329</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="S13" s="7">
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="T13" s="11">
+        <v>10.764699999999999</v>
+      </c>
+      <c r="V13" s="7">
+        <v>487</v>
+      </c>
+      <c r="W13" s="7">
+        <v>161</v>
+      </c>
+      <c r="X13" s="7">
+        <v>296</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>232</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>296</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>232</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="24">
+        <v>38.019799999999996</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="O14" s="13">
+        <f>M14+N14</f>
+        <v>2.8167999999999997</v>
+      </c>
+      <c r="P14" s="13">
+        <v>14.771699999999999</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="S14" s="7">
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T14" s="13">
+        <v>5.9924999999999997</v>
+      </c>
+      <c r="V14" s="7">
+        <v>1162</v>
+      </c>
+      <c r="W14" s="7">
+        <v>562</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1028</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>814</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>257</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>203.5</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="24">
+        <v>35.828200000000002</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.6232</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1.0330999999999999</v>
+      </c>
+      <c r="O15" s="13">
+        <f>M15+N15</f>
+        <v>2.6562999999999999</v>
+      </c>
+      <c r="P15" s="13">
+        <v>16.8873</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>9.5236000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="S15" s="7">
+        <v>7.9451000000000001</v>
+      </c>
+      <c r="T15" s="13">
+        <v>6.7601000000000004</v>
+      </c>
+      <c r="V15" s="7">
+        <v>1737</v>
+      </c>
+      <c r="W15" s="7">
+        <v>445</v>
+      </c>
+      <c r="X15" s="7">
+        <v>838</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>678</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>226</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="24">
+        <v>35.219200000000001</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.5205</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="O16" s="13">
+        <f>M16+N16</f>
+        <v>2.3864999999999998</v>
+      </c>
+      <c r="P16" s="13">
+        <v>14.188800000000001</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>11.678599999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.3972</v>
+      </c>
+      <c r="S16" s="7">
+        <v>10.6243</v>
+      </c>
+      <c r="T16" s="13">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="V16" s="7">
+        <v>1649</v>
+      </c>
+      <c r="W16" s="7">
+        <v>491</v>
+      </c>
+      <c r="X16" s="7">
+        <v>849</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>663</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>283</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>221</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="24">
+        <v>36.7517</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="O17" s="13">
+        <f>M17+N17</f>
+        <v>2.6492</v>
+      </c>
+      <c r="P17" s="13">
+        <v>15.6648</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>10.7546</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.4481</v>
+      </c>
+      <c r="S17" s="7">
+        <v>10.1648</v>
+      </c>
+      <c r="T17" s="13">
+        <v>7.6822999999999997</v>
+      </c>
+      <c r="V17" s="7">
+        <v>1158</v>
+      </c>
+      <c r="W17" s="7">
+        <v>476</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1042</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>780</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>260.5</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>195</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="24">
+        <v>33.251600000000003</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.4234</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <f>M18+N18</f>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="P18" s="13">
+        <v>13.706200000000001</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>9.2213999999999992</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.4093</v>
+      </c>
+      <c r="S18" s="7">
+        <v>8.6508000000000003</v>
+      </c>
+      <c r="T18" s="13">
+        <v>7.8621999999999996</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="7">
+        <v>1328</v>
+      </c>
+      <c r="W18" s="7">
+        <v>586</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1152</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>902</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>288</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>225.5</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="19" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="12">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="13">
+        <v>36.6417</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.7568999999999999</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="O19" s="13">
+        <f>M19+N19</f>
+        <v>2.6948999999999996</v>
+      </c>
+      <c r="P19" s="13">
+        <v>12.5382</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>12.494300000000001</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="S19" s="7">
+        <v>11.8475</v>
+      </c>
+      <c r="T19" s="13">
+        <v>8.9131999999999998</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="1">
+        <v>1162</v>
+      </c>
+      <c r="W19" s="1">
+        <v>545</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1028</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>785</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>257</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>196.25</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="21">
+        <v>32.470399999999998</v>
+      </c>
+      <c r="M20" s="20">
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="O20" s="20">
+        <f>M20+N20</f>
+        <v>2.1454</v>
+      </c>
+      <c r="P20" s="20">
+        <v>14.038600000000001</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>9.73</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="S20" s="20">
+        <v>8.5277999999999992</v>
+      </c>
+      <c r="T20" s="20">
+        <v>6.5545999999999998</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="20">
+        <v>1746</v>
+      </c>
+      <c r="W20" s="20">
+        <v>562</v>
+      </c>
+      <c r="X20" s="20">
+        <v>1113</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>856</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>278.25</v>
+      </c>
+      <c r="AA20" s="20">
+        <v>214</v>
+      </c>
+      <c r="AB20" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="26">
+        <v>49.535699999999999</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="O21" s="16">
+        <f>M21+N21</f>
+        <v>2.9837000000000002</v>
+      </c>
+      <c r="P21" s="16">
+        <v>25.7651</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>9.3183000000000007</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S21" s="7">
+        <v>8.0381</v>
+      </c>
+      <c r="T21" s="16">
+        <v>11.467499999999999</v>
+      </c>
+      <c r="V21" s="7">
+        <v>5553</v>
+      </c>
+      <c r="W21" s="7">
+        <v>1599</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1431</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>1103</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>286.2</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>220.6</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="26">
+        <v>50.580199999999998</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.5225</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="O22" s="16">
+        <f>M22+N22</f>
+        <v>2.4708999999999999</v>
+      </c>
+      <c r="P22" s="16">
+        <v>25.273800000000001</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>12.363</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.4556</v>
+      </c>
+      <c r="S22" s="7">
+        <v>11.8233</v>
+      </c>
+      <c r="T22" s="16">
+        <v>10.471399999999999</v>
+      </c>
+      <c r="V22" s="7">
+        <v>5893</v>
+      </c>
+      <c r="W22" s="7">
+        <v>1568</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1423</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>1159</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>231.8</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>3</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="26">
+        <v>50.623600000000003</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1.7739</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="O23" s="16">
+        <f>M23+N23</f>
+        <v>2.8231000000000002</v>
+      </c>
+      <c r="P23" s="16">
+        <v>30.735800000000001</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>10.813599999999999</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="S23" s="7">
+        <v>10.1661</v>
+      </c>
+      <c r="T23" s="16">
+        <v>6.2497999999999996</v>
+      </c>
+      <c r="V23" s="7">
+        <v>5893</v>
+      </c>
+      <c r="W23" s="7">
+        <v>1284</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1390</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>1091</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>278</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>218.2</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1">
+        <f>AVERAGE(L3:L23)</f>
+        <v>34.65014285714286</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:T25" si="0">AVERAGE(M3:M23)</f>
+        <v>1.6348190476190474</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98398095238095218</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>14.638257142857142</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8933238095238085</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43128571428571438</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9122619047619036</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4985476190476179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(L3:L23)</f>
+        <v>22.1127</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:T26" si="1">MIN(M3:M23)</f>
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5091000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MAX(L3:L23)</f>
+        <v>50.623600000000003</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:T27" si="2">MAX(M3:M23)</f>
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3385</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>30.735800000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="2"/>
+        <v>11.467499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.5552000000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.5078</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.0468999999999999</v>
+      </c>
+      <c r="O29" s="23">
+        <f>M29+N29</f>
+        <v>2.5547</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB30"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB31"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AJ23" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
+    <filterColumn colId="29">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC44E962-5F8A-5149-88AE-1342F81A14CE}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2:AI23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="24.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="15" max="15" width="16.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="19" max="19" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="20" max="20" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="21" max="21" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="22.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="22.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="20.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="13.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.1640625" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="34.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="76" style="1" customWidth="1"/>
+    <col min="35" max="35" width="76.83203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="25">
+        <v>26.511099999999999</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.6244000000000001</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.9103</v>
+      </c>
+      <c r="O3" s="11">
+        <f>M3+N3</f>
+        <v>2.5347</v>
+      </c>
+      <c r="P3" s="11">
+        <v>9.8414000000000001</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>9.6252999999999993</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="S3" s="7">
+        <v>8.077</v>
+      </c>
+      <c r="T3" s="11">
+        <v>4.5091000000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1135</v>
+      </c>
+      <c r="W3" s="1">
+        <v>557</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1149</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>872</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>287.25</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>218</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="20">
+        <v>25.857900000000001</v>
+      </c>
+      <c r="M4" s="20">
+        <v>1.6840999999999999</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1.0232000000000001</v>
+      </c>
+      <c r="O4" s="20">
+        <f>M4+N4</f>
+        <v>2.7073</v>
+      </c>
+      <c r="P4" s="20">
+        <v>7.6795999999999998</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>8.7030999999999992</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="S4" s="20">
+        <v>8.1353000000000009</v>
+      </c>
+      <c r="T4" s="20">
+        <v>6.7605000000000004</v>
+      </c>
+      <c r="V4" s="19">
+        <v>487</v>
+      </c>
+      <c r="W4" s="19">
+        <v>160</v>
+      </c>
+      <c r="X4" s="19">
+        <v>300</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>207</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>300</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>207</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="11">
+      <c r="L5" s="25">
+        <v>27.6388</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1.3385</v>
+      </c>
+      <c r="O5" s="11">
+        <f>M5+N5</f>
+        <v>2.9622999999999999</v>
+      </c>
+      <c r="P5" s="11">
+        <v>11.053800000000001</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>7.8822999999999999</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="S5" s="7">
+        <v>7.3109000000000002</v>
+      </c>
+      <c r="T5" s="11">
+        <v>5.7397999999999998</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1305</v>
+      </c>
+      <c r="W5" s="1">
+        <v>442</v>
+      </c>
+      <c r="X5" s="1">
+        <v>841</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>617</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>280.33333333333297</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>205.666666666666</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI5" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="11">
+        <v>29.0748</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.5277000000000001</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="O6" s="11">
+        <f>M6+N6</f>
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10.7882</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>8.2530999999999999</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>7.6355000000000004</v>
+      </c>
+      <c r="T6" s="11">
+        <v>7.5846999999999998</v>
+      </c>
+      <c r="V6" s="1">
+        <v>855</v>
+      </c>
+      <c r="W6" s="1">
+        <v>231</v>
+      </c>
+      <c r="X6" s="1">
+        <v>289</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>217</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>289</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>217</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="21">
+        <v>27.408100000000001</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1.3975</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="O7" s="20">
+        <f>M7+N7</f>
+        <v>2.2448000000000001</v>
+      </c>
+      <c r="P7" s="20">
+        <v>7.4112</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>10.1774</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="S7" s="20">
+        <v>8.4649000000000001</v>
+      </c>
+      <c r="T7" s="20">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="V7" s="19">
+        <v>788</v>
+      </c>
+      <c r="W7" s="19">
+        <v>268</v>
+      </c>
+      <c r="X7" s="19">
+        <v>572</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>460</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>286</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>230</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI7" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="25">
+        <v>22.1127</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.7395</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="O8" s="11">
+        <f>M8+N8</f>
+        <v>2.7595000000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9.6204000000000001</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="S8" s="7">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T8" s="11">
+        <v>4.8125999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <v>794</v>
+      </c>
+      <c r="W8" s="1">
+        <v>202</v>
+      </c>
+      <c r="X8" s="1">
+        <v>294</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>228</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>294</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>228</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI8" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="21">
+        <v>24.503900000000002</v>
+      </c>
+      <c r="M9" s="20">
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="N9" s="20">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O9" s="20">
+        <f>M9+N9</f>
+        <v>2.5402</v>
+      </c>
+      <c r="P9" s="20">
+        <v>6.4363999999999999</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>6.0552999999999999</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="S9" s="20">
+        <v>5.4214000000000002</v>
+      </c>
+      <c r="T9" s="20">
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="V9" s="19">
+        <v>487</v>
+      </c>
+      <c r="W9" s="19">
+        <v>148</v>
+      </c>
+      <c r="X9" s="19">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>220</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>220</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI9" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="20">
+        <v>43.564700000000002</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1.6375999999999999</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="O10" s="20">
+        <f>M10+N10</f>
+        <v>2.7117</v>
+      </c>
+      <c r="P10" s="20">
+        <v>21.645</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>12.289199999999999</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="S10" s="20">
+        <v>10.7524</v>
+      </c>
+      <c r="T10" s="20">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1234</v>
+      </c>
+      <c r="W10" s="19">
+        <v>578</v>
+      </c>
+      <c r="X10" s="19">
+        <v>1425</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>1111</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>285</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>222.2</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="19"/>
+      <c r="AF10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="20">
+        <v>42.935400000000001</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="O11" s="20">
+        <f>M11+N11</f>
+        <v>2.8307000000000002</v>
+      </c>
+      <c r="P11" s="20">
+        <v>21.552600000000002</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>9.7521000000000004</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="S11" s="20">
+        <v>8.1346000000000007</v>
+      </c>
+      <c r="T11" s="20">
+        <v>8.7988999999999997</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1803</v>
+      </c>
+      <c r="W11" s="19">
+        <v>920</v>
+      </c>
+      <c r="X11" s="19">
+        <v>1458</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>1174</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>234.8</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="19"/>
+      <c r="AF11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11">
+        <v>29.283000000000001</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.7356</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="O12" s="11">
+        <f>M12+N12</f>
+        <v>2.5678000000000001</v>
+      </c>
+      <c r="P12" s="11">
+        <v>11.662000000000001</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>9.4343000000000004</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.4345</v>
+      </c>
+      <c r="S12" s="7">
+        <v>8.0478000000000005</v>
+      </c>
+      <c r="T12" s="11">
+        <v>5.6180000000000003</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1667</v>
+      </c>
+      <c r="W12" s="1">
+        <v>676</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1312</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>985</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>197</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="25">
+        <v>29.840499999999999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1.0221</v>
+      </c>
+      <c r="O13" s="11">
+        <f>M13+N13</f>
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="P13" s="11">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>10.3329</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="S13" s="7">
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="T13" s="11">
+        <v>10.764699999999999</v>
+      </c>
+      <c r="V13" s="1">
+        <v>487</v>
+      </c>
+      <c r="W13" s="1">
+        <v>161</v>
+      </c>
+      <c r="X13" s="1">
+        <v>296</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>232</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>296</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>232</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI13" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="24">
+        <v>38.019799999999996</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="O14" s="13">
+        <f>M14+N14</f>
+        <v>2.8167999999999997</v>
+      </c>
+      <c r="P14" s="13">
+        <v>14.771699999999999</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="S14" s="7">
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T14" s="13">
+        <v>5.9924999999999997</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1162</v>
+      </c>
+      <c r="W14" s="1">
+        <v>562</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1028</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>814</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>257</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>203.5</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH14" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI14" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="12">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="24">
+        <v>35.828200000000002</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.6232</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1.0330999999999999</v>
+      </c>
+      <c r="O15" s="13">
+        <f>M15+N15</f>
+        <v>2.6562999999999999</v>
+      </c>
+      <c r="P15" s="13">
+        <v>16.8873</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>9.5236000000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="S15" s="7">
+        <v>7.9451000000000001</v>
+      </c>
+      <c r="T15" s="13">
+        <v>6.7601000000000004</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1737</v>
+      </c>
+      <c r="W15" s="1">
+        <v>445</v>
+      </c>
+      <c r="X15" s="1">
+        <v>838</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>678</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>226</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI15" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="24">
+        <v>35.219200000000001</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.5205</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="O16" s="13">
+        <f>M16+N16</f>
+        <v>2.3864999999999998</v>
+      </c>
+      <c r="P16" s="13">
+        <v>14.188800000000001</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>11.678599999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.3972</v>
+      </c>
+      <c r="S16" s="7">
+        <v>10.6243</v>
+      </c>
+      <c r="T16" s="13">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1649</v>
+      </c>
+      <c r="W16" s="1">
+        <v>491</v>
+      </c>
+      <c r="X16" s="1">
+        <v>849</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>663</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>283</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>221</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH16" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI16" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="24">
+        <v>36.7517</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="O17" s="13">
+        <f>M17+N17</f>
+        <v>2.6492</v>
+      </c>
+      <c r="P17" s="13">
+        <v>15.6648</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>10.7546</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.4481</v>
+      </c>
+      <c r="S17" s="7">
+        <v>10.1648</v>
+      </c>
+      <c r="T17" s="13">
+        <v>7.6822999999999997</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1158</v>
+      </c>
+      <c r="W17" s="1">
+        <v>476</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1042</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>780</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>260.5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>195</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH17" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI17" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="19" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="24">
+        <v>33.251600000000003</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.4234</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <f>M18+N18</f>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="P18" s="13">
+        <v>13.706200000000001</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>9.2213999999999992</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.4093</v>
+      </c>
+      <c r="S18" s="7">
+        <v>8.6508000000000003</v>
+      </c>
+      <c r="T18" s="13">
+        <v>7.8621999999999996</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="1">
+        <v>1328</v>
+      </c>
+      <c r="W18" s="1">
+        <v>586</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1152</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>902</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>288</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>225.5</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH18" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI18" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="12">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="13">
+        <v>36.6417</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.7568999999999999</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="O19" s="13">
+        <f>M19+N19</f>
+        <v>2.6948999999999996</v>
+      </c>
+      <c r="P19" s="13">
+        <v>12.5382</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>12.494300000000001</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="S19" s="7">
+        <v>11.8475</v>
+      </c>
+      <c r="T19" s="13">
+        <v>8.9131999999999998</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="1">
+        <v>1162</v>
+      </c>
+      <c r="W19" s="1">
+        <v>545</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1028</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>785</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>257</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>196.25</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="19" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="21">
+        <v>32.470399999999998</v>
+      </c>
+      <c r="M20" s="20">
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="O20" s="20">
+        <f>M20+N20</f>
+        <v>2.1454</v>
+      </c>
+      <c r="P20" s="20">
+        <v>14.038600000000001</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>9.73</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="S20" s="20">
+        <v>8.5277999999999992</v>
+      </c>
+      <c r="T20" s="20">
+        <v>6.5545999999999998</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="19">
+        <v>1746</v>
+      </c>
+      <c r="W20" s="19">
+        <v>562</v>
+      </c>
+      <c r="X20" s="19">
+        <v>1113</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>856</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>278.25</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>214</v>
+      </c>
+      <c r="AB20" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH20" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI20" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="26">
+        <v>49.535699999999999</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="O21" s="16">
+        <f>M21+N21</f>
+        <v>2.9837000000000002</v>
+      </c>
+      <c r="P21" s="16">
+        <v>25.7651</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>9.3183000000000007</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S21" s="7">
+        <v>8.0381</v>
+      </c>
+      <c r="T21" s="16">
+        <v>11.467499999999999</v>
+      </c>
+      <c r="V21" s="1">
+        <v>5553</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1599</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1431</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1103</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>286.2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>220.6</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH21" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI21" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="26">
+        <v>50.580199999999998</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.5225</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="O22" s="16">
+        <f>M22+N22</f>
+        <v>2.4708999999999999</v>
+      </c>
+      <c r="P22" s="16">
+        <v>25.273800000000001</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>12.363</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.4556</v>
+      </c>
+      <c r="S22" s="7">
+        <v>11.8233</v>
+      </c>
+      <c r="T22" s="16">
+        <v>10.471399999999999</v>
+      </c>
+      <c r="V22" s="1">
+        <v>5893</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1568</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1423</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1159</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>231.8</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH22" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI22" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>3</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="26">
+        <v>50.623600000000003</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1.7739</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="O23" s="16">
+        <f>M23+N23</f>
+        <v>2.8231000000000002</v>
+      </c>
+      <c r="P23" s="16">
+        <v>30.735800000000001</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>10.813599999999999</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="S23" s="7">
+        <v>10.1661</v>
+      </c>
+      <c r="T23" s="16">
+        <v>6.2497999999999996</v>
+      </c>
+      <c r="V23" s="1">
+        <v>5893</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1284</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1390</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1091</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>278</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>218.2</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI23" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1">
+        <f>AVERAGE(L3:L23)</f>
+        <v>34.65014285714286</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:T25" si="0">AVERAGE(M3:M23)</f>
+        <v>1.6348190476190474</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98398095238095218</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>14.638257142857142</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8933238095238085</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43128571428571438</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9122619047619036</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4985476190476179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(L3:L23)</f>
+        <v>22.1127</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:T26" si="1">MIN(M3:M23)</f>
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5091000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MAX(L3:L23)</f>
+        <v>50.623600000000003</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:T27" si="2">MAX(M3:M23)</f>
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3385</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>30.735800000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="2"/>
+        <v>11.467499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.5552000000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.5078</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.0468999999999999</v>
+      </c>
+      <c r="O29" s="23">
+        <f>M29+N29</f>
+        <v>2.5547</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AB30"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AB31"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AJ23" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
+    <filterColumn colId="29">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0EDFA5-F3DE-8149-BA72-0CF9BCA47EFD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AG47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="33.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="24.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="15" max="15" width="16.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="19" max="19" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="20" max="20" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="21" max="21" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="22" max="29" width="13.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="20.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25.33203125" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AG1" s="3"/>
+    </row>
+    <row r="2" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AG2" s="3"/>
+    </row>
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="24">
+        <v>38.019799999999996</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="O4" s="13">
+        <f>M4+N4</f>
+        <v>2.8167999999999997</v>
+      </c>
+      <c r="P4" s="13">
+        <v>14.771699999999999</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="S4" s="7">
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T4" s="13">
+        <v>5.9924999999999997</v>
+      </c>
+      <c r="V4" s="32">
+        <v>1162</v>
+      </c>
+      <c r="W4" s="32">
+        <v>562</v>
+      </c>
+      <c r="X4" s="32">
+        <v>1028</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>814</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>257</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>203.5</v>
+      </c>
+      <c r="AB4" s="34">
+        <v>852</v>
+      </c>
+      <c r="AC4" s="34">
+        <v>339</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="19">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="20">
         <v>25.857900000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="M5" s="20">
         <v>1.6840999999999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="N5" s="20">
         <v>1.0232000000000001</v>
       </c>
-      <c r="M5" s="11">
-        <f>K5+L5</f>
+      <c r="O5" s="20">
+        <f>M5+N5</f>
         <v>2.7073</v>
       </c>
-      <c r="N5" s="11">
+      <c r="P5" s="20">
         <v>7.6795999999999998</v>
       </c>
-      <c r="O5" s="11">
+      <c r="Q5" s="20">
         <v>8.7030999999999992</v>
       </c>
-      <c r="P5" s="6">
+      <c r="R5" s="21">
         <v>0.39910000000000001</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="S5" s="20">
         <v>8.1353000000000009</v>
       </c>
-      <c r="R5" s="11">
+      <c r="T5" s="20">
         <v>6.7605000000000004</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="31">
         <v>487</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="31">
         <v>160</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="31">
         <v>300</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="31">
         <v>207</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="31">
         <v>300</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="31">
         <v>207</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AB5" s="30">
+        <v>1258</v>
+      </c>
+      <c r="AC5" s="30">
+        <v>279</v>
+      </c>
+      <c r="AD5" s="19">
         <v>1</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AE5" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+    <row r="6" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="24">
+        <v>35.828200000000002</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.6232</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.0330999999999999</v>
+      </c>
+      <c r="O6" s="13">
+        <f>M6+N6</f>
+        <v>2.6562999999999999</v>
+      </c>
+      <c r="P6" s="13">
+        <v>16.8873</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9.5236000000000001</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>7.9451000000000001</v>
+      </c>
+      <c r="T6" s="13">
+        <v>6.7601000000000004</v>
+      </c>
+      <c r="V6" s="32">
+        <v>1737</v>
+      </c>
+      <c r="W6" s="32">
+        <v>445</v>
+      </c>
+      <c r="X6" s="32">
+        <v>838</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>678</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>226</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>823</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>364</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="11">
-        <v>27.408100000000001</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1.3975</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.84730000000000005</v>
-      </c>
-      <c r="M6" s="11">
-        <f>K6+L6</f>
-        <v>2.2448000000000001</v>
-      </c>
-      <c r="N6" s="11">
-        <v>7.4112</v>
-      </c>
-      <c r="O6" s="11">
-        <v>10.1774</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.41830000000000001</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>8.4649000000000001</v>
-      </c>
-      <c r="R6" s="11">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="T6" s="1">
-        <v>788</v>
-      </c>
-      <c r="U6" s="1">
-        <v>268</v>
-      </c>
-      <c r="V6" s="1">
-        <v>572</v>
-      </c>
-      <c r="W6" s="1">
-        <v>460</v>
-      </c>
-      <c r="X6" s="1">
-        <v>286</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>230</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="11">
-        <v>22.1127</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1.7395</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="M7" s="11">
-        <f>K7+L7</f>
-        <v>2.7595000000000001</v>
-      </c>
-      <c r="N7" s="11">
-        <v>9.6204000000000001</v>
+      <c r="L7" s="11">
+        <v>29.0748</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.5277000000000001</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.92069999999999996</v>
       </c>
       <c r="O7" s="11">
-        <v>4.9195000000000002</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.40550000000000003</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>4.3106999999999998</v>
-      </c>
-      <c r="R7" s="11">
-        <v>4.8125999999999998</v>
-      </c>
-      <c r="T7" s="1">
-        <v>794</v>
-      </c>
-      <c r="U7" s="1">
-        <v>202</v>
-      </c>
-      <c r="V7" s="1">
-        <v>294</v>
-      </c>
-      <c r="W7" s="1">
-        <v>228</v>
-      </c>
-      <c r="X7" s="1">
-        <v>294</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>228</v>
-      </c>
-      <c r="Z7" s="9">
+        <f>M7+N7</f>
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="P7" s="11">
+        <v>10.7882</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>8.2530999999999999</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="S7" s="7">
+        <v>7.6355000000000004</v>
+      </c>
+      <c r="T7" s="11">
+        <v>7.5846999999999998</v>
+      </c>
+      <c r="V7" s="29">
+        <v>855</v>
+      </c>
+      <c r="W7" s="29">
+        <v>231</v>
+      </c>
+      <c r="X7" s="29">
+        <v>289</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>217</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>289</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>217</v>
+      </c>
+      <c r="AB7" s="30">
+        <v>811</v>
+      </c>
+      <c r="AC7" s="30">
+        <v>314</v>
+      </c>
+      <c r="AD7" s="9">
         <v>1</v>
       </c>
-      <c r="AA7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="11">
-        <v>29.0748</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.5277000000000001</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="M8" s="11">
-        <f>K8+L8</f>
-        <v>2.4483999999999999</v>
-      </c>
-      <c r="N8" s="11">
-        <v>10.7882</v>
+      <c r="L8" s="25">
+        <v>26.511099999999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.6244000000000001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.9103</v>
       </c>
       <c r="O8" s="11">
-        <v>8.2530999999999999</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0.41880000000000001</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>7.6355000000000004</v>
-      </c>
-      <c r="R8" s="11">
-        <v>7.5846999999999998</v>
-      </c>
-      <c r="T8" s="1">
-        <v>855</v>
-      </c>
-      <c r="U8" s="1">
-        <v>231</v>
-      </c>
-      <c r="V8" s="1">
-        <v>289</v>
-      </c>
-      <c r="W8" s="1">
-        <v>217</v>
-      </c>
-      <c r="X8" s="1">
-        <v>289</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>217</v>
-      </c>
-      <c r="Z8" s="9">
+        <f>M8+N8</f>
+        <v>2.5347</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9.8414000000000001</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>9.6252999999999993</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="S8" s="7">
+        <v>8.077</v>
+      </c>
+      <c r="T8" s="11">
+        <v>4.5091000000000001</v>
+      </c>
+      <c r="V8" s="32">
+        <v>1135</v>
+      </c>
+      <c r="W8" s="32">
+        <v>557</v>
+      </c>
+      <c r="X8" s="32">
+        <v>1149</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>872</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>287.25</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>218</v>
+      </c>
+      <c r="AB8" s="34">
+        <v>832</v>
+      </c>
+      <c r="AC8" s="34">
+        <v>249</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="24">
+        <v>35.219200000000001</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.5205</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="O9" s="13">
+        <f>M9+N9</f>
+        <v>2.3864999999999998</v>
+      </c>
+      <c r="P9" s="13">
+        <v>14.188800000000001</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>11.678599999999999</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.3972</v>
+      </c>
+      <c r="S9" s="7">
+        <v>10.6243</v>
+      </c>
+      <c r="T9" s="13">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="V9" s="32">
+        <v>1649</v>
+      </c>
+      <c r="W9" s="32">
+        <v>491</v>
+      </c>
+      <c r="X9" s="32">
+        <v>849</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>663</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>283</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>221</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>836</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>307</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="25">
+        <v>27.6388</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1.3385</v>
+      </c>
+      <c r="O10" s="11">
+        <f>M10+N10</f>
+        <v>2.9622999999999999</v>
+      </c>
+      <c r="P10" s="11">
+        <v>11.053800000000001</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>7.8822999999999999</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="S10" s="7">
+        <v>7.3109000000000002</v>
+      </c>
+      <c r="T10" s="11">
+        <v>5.7397999999999998</v>
+      </c>
+      <c r="V10" s="32">
+        <v>1305</v>
+      </c>
+      <c r="W10" s="32">
+        <v>442</v>
+      </c>
+      <c r="X10" s="32">
+        <v>841</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>617</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>280.33333333333297</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>205.666666666666</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>798</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>252</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="20">
+        <v>43.564700000000002</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1.6375999999999999</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="O11" s="20">
+        <f>M11+N11</f>
+        <v>2.7117</v>
+      </c>
+      <c r="P11" s="20">
+        <v>21.645</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>12.289199999999999</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="S11" s="20">
+        <v>10.7524</v>
+      </c>
+      <c r="T11" s="20">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="V11" s="31">
+        <v>1234</v>
+      </c>
+      <c r="W11" s="31">
+        <v>578</v>
+      </c>
+      <c r="X11" s="31">
+        <v>1425</v>
+      </c>
+      <c r="Y11" s="31">
+        <v>1111</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>285</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>222.2</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>1036</v>
+      </c>
+      <c r="AC11" s="30">
+        <v>359</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="20">
+        <v>42.935400000000001</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="N12" s="20">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="O12" s="20">
+        <f>M12+N12</f>
+        <v>2.8307000000000002</v>
+      </c>
+      <c r="P12" s="20">
+        <v>21.552600000000002</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>9.7521000000000004</v>
+      </c>
+      <c r="R12" s="21">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="S12" s="20">
+        <v>8.1346000000000007</v>
+      </c>
+      <c r="T12" s="20">
+        <v>8.7988999999999997</v>
+      </c>
+      <c r="V12" s="31">
+        <v>1803</v>
+      </c>
+      <c r="W12" s="31">
+        <v>920</v>
+      </c>
+      <c r="X12" s="31">
+        <v>1458</v>
+      </c>
+      <c r="Y12" s="31">
+        <v>1174</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>234.8</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>1083</v>
+      </c>
+      <c r="AC12" s="30">
+        <v>313</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="11">
+        <v>29.283000000000001</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.7356</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="O13" s="11">
+        <f>M13+N13</f>
+        <v>2.5678000000000001</v>
+      </c>
+      <c r="P13" s="11">
+        <v>11.662000000000001</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>9.4343000000000004</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.4345</v>
+      </c>
+      <c r="S13" s="7">
+        <v>8.0478000000000005</v>
+      </c>
+      <c r="T13" s="11">
+        <v>5.6180000000000003</v>
+      </c>
+      <c r="V13" s="29">
+        <v>1667</v>
+      </c>
+      <c r="W13" s="29">
+        <v>676</v>
+      </c>
+      <c r="X13" s="29">
+        <v>1312</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>985</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>197</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>862</v>
+      </c>
+      <c r="AC13" s="30">
+        <v>246</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="24">
+        <v>36.7517</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="O14" s="13">
+        <f>M14+N14</f>
+        <v>2.6492</v>
+      </c>
+      <c r="P14" s="13">
+        <v>15.6648</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>10.7546</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.4481</v>
+      </c>
+      <c r="S14" s="7">
+        <v>10.1648</v>
+      </c>
+      <c r="T14" s="13">
+        <v>7.6822999999999997</v>
+      </c>
+      <c r="V14" s="32">
+        <v>1158</v>
+      </c>
+      <c r="W14" s="32">
+        <v>476</v>
+      </c>
+      <c r="X14" s="32">
+        <v>1042</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>780</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>260.5</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>195</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>849</v>
+      </c>
+      <c r="AC14" s="34">
+        <v>308</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="19">
+        <v>5</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="21">
+        <v>27.408100000000001</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1.3975</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="O15" s="20">
+        <f>M15+N15</f>
+        <v>2.2448000000000001</v>
+      </c>
+      <c r="P15" s="20">
+        <v>7.4112</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>10.1774</v>
+      </c>
+      <c r="R15" s="21">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="S15" s="20">
+        <v>8.4649000000000001</v>
+      </c>
+      <c r="T15" s="20">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="V15" s="33">
+        <v>788</v>
+      </c>
+      <c r="W15" s="33">
+        <v>268</v>
+      </c>
+      <c r="X15" s="33">
+        <v>572</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>460</v>
+      </c>
+      <c r="Z15" s="33">
+        <v>286</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>230</v>
+      </c>
+      <c r="AB15" s="34">
+        <v>807</v>
+      </c>
+      <c r="AC15" s="34">
+        <v>296</v>
+      </c>
+      <c r="AD15" s="19">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="22">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="25">
+        <v>22.1127</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1.7395</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="O16" s="11">
+        <f>M16+N16</f>
+        <v>2.7595000000000001</v>
+      </c>
+      <c r="P16" s="11">
+        <v>9.6204000000000001</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="S16" s="7">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T16" s="11">
+        <v>4.8125999999999998</v>
+      </c>
+      <c r="V16" s="32">
+        <v>794</v>
+      </c>
+      <c r="W16" s="32">
+        <v>202</v>
+      </c>
+      <c r="X16" s="32">
+        <v>294</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>228</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>294</v>
+      </c>
+      <c r="AA16" s="32">
+        <v>228</v>
+      </c>
+      <c r="AB16" s="34">
+        <v>793</v>
+      </c>
+      <c r="AC16" s="34">
+        <v>236</v>
+      </c>
+      <c r="AD16" s="9">
         <v>1</v>
       </c>
-      <c r="AA8" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="AE16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="26">
+        <v>49.535699999999999</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="O17" s="16">
+        <f>M17+N17</f>
+        <v>2.9837000000000002</v>
+      </c>
+      <c r="P17" s="16">
+        <v>25.7651</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>9.3183000000000007</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="S17" s="7">
+        <v>8.0381</v>
+      </c>
+      <c r="T17" s="16">
+        <v>11.467499999999999</v>
+      </c>
+      <c r="V17" s="32">
+        <v>5553</v>
+      </c>
+      <c r="W17" s="32">
+        <v>1599</v>
+      </c>
+      <c r="X17" s="32">
+        <v>1431</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>1103</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>286.2</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>220.6</v>
+      </c>
+      <c r="AB17" s="34">
+        <v>861</v>
+      </c>
+      <c r="AC17" s="34">
+        <v>375</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>30</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="24">
+        <v>33.251600000000003</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.4234</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="O18" s="13">
+        <f>M18+N18</f>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="P18" s="13">
+        <v>13.706200000000001</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>9.2213999999999992</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.4093</v>
+      </c>
+      <c r="S18" s="7">
+        <v>8.6508000000000003</v>
+      </c>
+      <c r="T18" s="13">
+        <v>7.8621999999999996</v>
+      </c>
+      <c r="V18" s="32">
+        <v>1328</v>
+      </c>
+      <c r="W18" s="32">
+        <v>586</v>
+      </c>
+      <c r="X18" s="32">
+        <v>1152</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>902</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>288</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>225.5</v>
+      </c>
+      <c r="AB18" s="34">
+        <v>823</v>
+      </c>
+      <c r="AC18" s="34">
+        <v>296</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="21">
+        <v>32.470399999999998</v>
+      </c>
+      <c r="M19" s="20">
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="O19" s="20">
+        <f>M19+N19</f>
+        <v>2.1454</v>
+      </c>
+      <c r="P19" s="20">
+        <v>14.038600000000001</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>9.73</v>
+      </c>
+      <c r="R19" s="21">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="S19" s="20">
+        <v>8.5277999999999992</v>
+      </c>
+      <c r="T19" s="20">
+        <v>6.5545999999999998</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="33">
+        <v>1746</v>
+      </c>
+      <c r="W19" s="33">
+        <v>562</v>
+      </c>
+      <c r="X19" s="33">
+        <v>1113</v>
+      </c>
+      <c r="Y19" s="33">
+        <v>856</v>
+      </c>
+      <c r="Z19" s="33">
+        <v>278.25</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>214</v>
+      </c>
+      <c r="AB19" s="34">
+        <v>809</v>
+      </c>
+      <c r="AC19" s="34">
+        <v>251</v>
+      </c>
+      <c r="AD19" s="19">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="22">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" s="19" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>21</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5</v>
+      </c>
+      <c r="G20" s="12">
+        <v>3</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="13">
+        <v>36.6417</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1.7568999999999999</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="O20" s="13">
+        <f>M20+N20</f>
+        <v>2.6948999999999996</v>
+      </c>
+      <c r="P20" s="13">
+        <v>12.5382</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>12.494300000000001</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="S20" s="7">
+        <v>11.8475</v>
+      </c>
+      <c r="T20" s="13">
+        <v>8.9131999999999998</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="29">
+        <v>1162</v>
+      </c>
+      <c r="W20" s="29">
+        <v>545</v>
+      </c>
+      <c r="X20" s="29">
+        <v>1028</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>785</v>
+      </c>
+      <c r="Z20" s="29">
+        <v>257</v>
+      </c>
+      <c r="AA20" s="29">
+        <v>196.25</v>
+      </c>
+      <c r="AB20" s="30">
+        <v>859</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>479</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>22</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="19">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="21">
+        <v>24.503900000000002</v>
+      </c>
+      <c r="M21" s="20">
+        <v>1.5172000000000001</v>
+      </c>
+      <c r="N21" s="20">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O21" s="20">
+        <f>M21+N21</f>
+        <v>2.5402</v>
+      </c>
+      <c r="P21" s="20">
+        <v>6.4363999999999999</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>6.0552999999999999</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="S21" s="20">
+        <v>5.4214000000000002</v>
+      </c>
+      <c r="T21" s="20">
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="33">
+        <v>487</v>
+      </c>
+      <c r="W21" s="33">
+        <v>148</v>
+      </c>
+      <c r="X21" s="33">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>220</v>
+      </c>
+      <c r="Z21" s="33">
+        <v>300</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>220</v>
+      </c>
+      <c r="AB21" s="34">
+        <v>1273</v>
+      </c>
+      <c r="AC21" s="34">
+        <v>322</v>
+      </c>
+      <c r="AD21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>3</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="25">
+        <v>29.840499999999999</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1.0221</v>
+      </c>
+      <c r="O22" s="11">
+        <f>M22+N22</f>
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="P22" s="11">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>10.3329</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="S22" s="7">
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="T22" s="11">
+        <v>10.764699999999999</v>
+      </c>
+      <c r="V22" s="32">
+        <v>487</v>
+      </c>
+      <c r="W22" s="32">
+        <v>161</v>
+      </c>
+      <c r="X22" s="32">
+        <v>296</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>232</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>296</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>232</v>
+      </c>
+      <c r="AB22" s="34">
+        <v>1260</v>
+      </c>
+      <c r="AC22" s="34">
+        <v>406</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>25</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="11">
-        <v>26.511099999999999</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.6244000000000001</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.9103</v>
-      </c>
-      <c r="M9" s="11">
-        <f>K9+L9</f>
-        <v>2.5347</v>
-      </c>
-      <c r="N9" s="11">
-        <v>9.8414000000000001</v>
-      </c>
-      <c r="O9" s="11">
-        <v>9.6252999999999993</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0.45250000000000001</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>8.077</v>
-      </c>
-      <c r="R9" s="11">
-        <v>4.5091000000000001</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1135</v>
-      </c>
-      <c r="U9" s="1">
-        <v>557</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1149</v>
-      </c>
-      <c r="W9" s="1">
-        <v>872</v>
-      </c>
-      <c r="X9" s="1">
-        <v>287.25</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="12">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="13">
-        <v>36.6417</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.7568999999999999</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="M10" s="13">
-        <f>K10+L10</f>
-        <v>2.6948999999999996</v>
-      </c>
-      <c r="N10" s="13">
-        <v>12.5382</v>
-      </c>
-      <c r="O10" s="13">
-        <v>12.494300000000001</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0.44269999999999998</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>11.8475</v>
-      </c>
-      <c r="R10" s="13">
-        <v>8.9131999999999998</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1162</v>
-      </c>
-      <c r="U10" s="1">
-        <v>545</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1028</v>
-      </c>
-      <c r="W10" s="1">
-        <v>785</v>
-      </c>
-      <c r="X10" s="1">
-        <v>257</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>196.25</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="13">
-        <v>38.019799999999996</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1.79</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1.0267999999999999</v>
-      </c>
-      <c r="M11" s="13">
-        <f>K11+L11</f>
-        <v>2.8167999999999997</v>
-      </c>
-      <c r="N11" s="13">
-        <v>14.771699999999999</v>
-      </c>
-      <c r="O11" s="13">
-        <v>14.437900000000001</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0.432</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>13.812200000000001</v>
-      </c>
-      <c r="R11" s="13">
-        <v>5.9924999999999997</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1162</v>
-      </c>
-      <c r="U11" s="1">
-        <v>562</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1028</v>
-      </c>
-      <c r="W11" s="1">
-        <v>814</v>
-      </c>
-      <c r="X11" s="1">
-        <v>257</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>203.5</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="13">
-        <v>36.7517</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1.7266999999999999</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="M12" s="13">
-        <f>K12+L12</f>
-        <v>2.6492</v>
-      </c>
-      <c r="N12" s="13">
-        <v>15.6648</v>
-      </c>
-      <c r="O12" s="13">
-        <v>10.7546</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0.4481</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>10.1648</v>
-      </c>
-      <c r="R12" s="13">
-        <v>7.6822999999999997</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1158</v>
-      </c>
-      <c r="U12" s="1">
-        <v>476</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1042</v>
-      </c>
-      <c r="W12" s="1">
-        <v>780</v>
-      </c>
-      <c r="X12" s="1">
-        <v>260.5</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>195</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="13">
-        <v>35.828200000000002</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1.6232</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1.0330999999999999</v>
-      </c>
-      <c r="M13" s="13">
-        <f>K13+L13</f>
-        <v>2.6562999999999999</v>
-      </c>
-      <c r="N13" s="13">
-        <v>16.8873</v>
-      </c>
-      <c r="O13" s="13">
-        <v>9.5236000000000001</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0.43740000000000001</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>7.9451000000000001</v>
-      </c>
-      <c r="R13" s="13">
-        <v>6.7601000000000004</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1737</v>
-      </c>
-      <c r="U13" s="1">
-        <v>445</v>
-      </c>
-      <c r="V13" s="1">
-        <v>838</v>
-      </c>
-      <c r="W13" s="1">
-        <v>678</v>
-      </c>
-      <c r="X13" s="1">
-        <v>279.33333333333297</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>226</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="15">
-        <v>5</v>
-      </c>
-      <c r="E14" s="15">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="16">
-        <v>43.564700000000002</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1.6375999999999999</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1.0741000000000001</v>
-      </c>
-      <c r="M14" s="16">
-        <f>K14+L14</f>
-        <v>2.7117</v>
-      </c>
-      <c r="N14" s="16">
-        <v>21.645</v>
-      </c>
-      <c r="O14" s="16">
-        <v>12.289199999999999</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10.7524</v>
-      </c>
-      <c r="R14" s="16">
-        <v>6.9180000000000001</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="U14" s="1">
-        <v>578</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1425</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1111</v>
-      </c>
-      <c r="X14" s="1">
-        <v>285</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>222.2</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="11">
-        <v>27.6388</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1.6237999999999999</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1.3385</v>
-      </c>
-      <c r="M15" s="11">
-        <f>K15+L15</f>
-        <v>2.9622999999999999</v>
-      </c>
-      <c r="N15" s="11">
-        <v>11.053800000000001</v>
-      </c>
-      <c r="O15" s="11">
-        <v>7.8822999999999999</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.41660000000000003</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>7.3109000000000002</v>
-      </c>
-      <c r="R15" s="11">
-        <v>5.7397999999999998</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1305</v>
-      </c>
-      <c r="U15" s="1">
-        <v>442</v>
-      </c>
-      <c r="V15" s="1">
-        <v>841</v>
-      </c>
-      <c r="W15" s="1">
-        <v>617</v>
-      </c>
-      <c r="X15" s="1">
-        <v>280.33333333333297</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>205.666666666666</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>3</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="12">
-        <v>5</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="13">
-        <v>33.251600000000003</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1.4234</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1.0377000000000001</v>
-      </c>
-      <c r="M16" s="13">
-        <f>K16+L16</f>
-        <v>2.4611000000000001</v>
-      </c>
-      <c r="N16" s="13">
-        <v>13.706200000000001</v>
-      </c>
-      <c r="O16" s="13">
-        <v>9.2213999999999992</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0.4093</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>8.6508000000000003</v>
-      </c>
-      <c r="R16" s="13">
-        <v>7.8621999999999996</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1328</v>
-      </c>
-      <c r="U16" s="1">
-        <v>586</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1152</v>
-      </c>
-      <c r="W16" s="1">
-        <v>902</v>
-      </c>
-      <c r="X16" s="1">
-        <v>288</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>225.5</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="11">
-        <v>29.283000000000001</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1.7356</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0.83220000000000005</v>
-      </c>
-      <c r="M17" s="11">
-        <f>K17+L17</f>
-        <v>2.5678000000000001</v>
-      </c>
-      <c r="N17" s="11">
-        <v>11.662000000000001</v>
-      </c>
-      <c r="O17" s="11">
-        <v>9.4343000000000004</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0.4345</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>8.0478000000000005</v>
-      </c>
-      <c r="R17" s="11">
-        <v>5.6180000000000003</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1667</v>
-      </c>
-      <c r="U17" s="1">
-        <v>676</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1312</v>
-      </c>
-      <c r="W17" s="1">
-        <v>985</v>
-      </c>
-      <c r="X17" s="1">
-        <v>262.39999999999998</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>197</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12">
-        <v>3</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="13">
-        <v>32.470399999999998</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1.3375999999999999</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="M18" s="13">
-        <f>K18+L18</f>
-        <v>2.1454</v>
-      </c>
-      <c r="N18" s="13">
-        <v>14.038600000000001</v>
-      </c>
-      <c r="O18" s="13">
-        <v>9.73</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0.45040000000000002</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>8.5277999999999992</v>
-      </c>
-      <c r="R18" s="13">
-        <v>6.5545999999999998</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1746</v>
-      </c>
-      <c r="U18" s="1">
-        <v>562</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1113</v>
-      </c>
-      <c r="W18" s="1">
-        <v>856</v>
-      </c>
-      <c r="X18" s="1">
-        <v>278.25</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>214</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="12">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="13">
-        <v>35.219200000000001</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1.5205</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="M19" s="13">
-        <f>K19+L19</f>
-        <v>2.3864999999999998</v>
-      </c>
-      <c r="N19" s="13">
-        <v>14.188800000000001</v>
-      </c>
-      <c r="O19" s="13">
-        <v>11.678599999999999</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0.3972</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>10.6243</v>
-      </c>
-      <c r="R19" s="13">
-        <v>6.9645999999999999</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1649</v>
-      </c>
-      <c r="U19" s="1">
-        <v>491</v>
-      </c>
-      <c r="V19" s="1">
-        <v>849</v>
-      </c>
-      <c r="W19" s="1">
-        <v>663</v>
-      </c>
-      <c r="X19" s="1">
-        <v>283</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>221</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>9</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5</v>
-      </c>
-      <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="20">
-        <v>42.935400000000001</v>
-      </c>
-      <c r="K20" s="20">
-        <v>1.7733000000000001</v>
-      </c>
-      <c r="L20" s="20">
-        <v>1.0573999999999999</v>
-      </c>
-      <c r="M20" s="20">
-        <f>K20+L20</f>
-        <v>2.8307000000000002</v>
-      </c>
-      <c r="N20" s="20">
-        <v>21.552600000000002</v>
-      </c>
-      <c r="O20" s="20">
-        <v>9.7521000000000004</v>
-      </c>
-      <c r="P20" s="21">
-        <v>0.45590000000000003</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>8.1346000000000007</v>
-      </c>
-      <c r="R20" s="20">
-        <v>8.7988999999999997</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="19">
-        <v>1803</v>
-      </c>
-      <c r="U20" s="19">
-        <v>920</v>
-      </c>
-      <c r="V20" s="19">
-        <v>1458</v>
-      </c>
-      <c r="W20" s="19">
-        <v>1174</v>
-      </c>
-      <c r="X20" s="19">
-        <v>291.60000000000002</v>
-      </c>
-      <c r="Y20" s="19">
-        <v>234.8</v>
-      </c>
-      <c r="Z20" s="19">
-        <v>8</v>
-      </c>
-      <c r="AA20" s="22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="16">
-        <v>49.535699999999999</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2.0184000000000002</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="M21" s="16">
-        <f>K21+L21</f>
-        <v>2.9837000000000002</v>
-      </c>
-      <c r="N21" s="16">
-        <v>25.7651</v>
-      </c>
-      <c r="O21" s="16">
-        <v>9.3183000000000007</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0.46350000000000002</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>8.0381</v>
-      </c>
-      <c r="R21" s="16">
-        <v>11.467499999999999</v>
-      </c>
-      <c r="T21" s="1">
-        <v>5553</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1599</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1431</v>
-      </c>
-      <c r="W21" s="1">
-        <v>1103</v>
-      </c>
-      <c r="X21" s="1">
-        <v>286.2</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>220.6</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="17">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <v>25</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="15">
-        <v>5</v>
-      </c>
-      <c r="E22" s="15">
-        <v>3</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="16">
-        <v>50.580199999999998</v>
-      </c>
-      <c r="K22" s="7">
-        <v>1.5225</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.94840000000000002</v>
-      </c>
-      <c r="M22" s="16">
-        <f>K22+L22</f>
-        <v>2.4708999999999999</v>
-      </c>
-      <c r="N22" s="16">
-        <v>25.273800000000001</v>
-      </c>
-      <c r="O22" s="16">
-        <v>12.363</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0.4556</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>11.8233</v>
-      </c>
-      <c r="R22" s="16">
-        <v>10.471399999999999</v>
-      </c>
-      <c r="T22" s="1">
-        <v>5893</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1568</v>
-      </c>
-      <c r="V22" s="1">
-        <v>1423</v>
-      </c>
-      <c r="W22" s="1">
-        <v>1159</v>
-      </c>
-      <c r="X22" s="1">
-        <v>284.60000000000002</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>231.8</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>8</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <v>26</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>42</v>
@@ -5169,291 +10787,479 @@
       <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="15">
-        <v>5</v>
-      </c>
-      <c r="E23" s="15">
-        <v>3</v>
+      <c r="D23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>3</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="26">
+        <v>50.580199999999998</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1.5225</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="O23" s="16">
+        <f>M23+N23</f>
+        <v>2.4708999999999999</v>
+      </c>
+      <c r="P23" s="16">
+        <v>25.273800000000001</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>12.363</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.4556</v>
+      </c>
+      <c r="S23" s="7">
+        <v>11.8233</v>
+      </c>
+      <c r="T23" s="16">
+        <v>10.471399999999999</v>
+      </c>
+      <c r="V23" s="32">
+        <v>5893</v>
+      </c>
+      <c r="W23" s="32">
+        <v>1568</v>
+      </c>
+      <c r="X23" s="32">
+        <v>1423</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>1159</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="AA23" s="32">
+        <v>231.8</v>
+      </c>
+      <c r="AB23" s="34">
+        <v>845</v>
+      </c>
+      <c r="AC23" s="34">
+        <v>523</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>32</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>26</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="15">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15">
+        <v>3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="K24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="16">
+      <c r="L24" s="26">
         <v>50.623600000000003</v>
       </c>
-      <c r="K23" s="7">
+      <c r="M24" s="7">
         <v>1.7739</v>
       </c>
-      <c r="L23" s="7">
+      <c r="N24" s="7">
         <v>1.0491999999999999</v>
       </c>
-      <c r="M23" s="16">
-        <f>K23+L23</f>
+      <c r="O24" s="16">
+        <f>M24+N24</f>
         <v>2.8231000000000002</v>
       </c>
-      <c r="N23" s="16">
+      <c r="P24" s="16">
         <v>30.735800000000001</v>
       </c>
-      <c r="O23" s="16">
+      <c r="Q24" s="16">
         <v>10.813599999999999</v>
       </c>
-      <c r="P23" s="6">
+      <c r="R24" s="6">
         <v>0.45979999999999999</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="S24" s="7">
         <v>10.1661</v>
       </c>
-      <c r="R23" s="16">
+      <c r="T24" s="16">
         <v>6.2497999999999996</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V24" s="32">
         <v>5893</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W24" s="32">
         <v>1284</v>
       </c>
-      <c r="V23" s="1">
+      <c r="X24" s="32">
         <v>1390</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y24" s="32">
         <v>1091</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z24" s="32">
         <v>278</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA24" s="32">
         <v>218.2</v>
       </c>
-      <c r="Z23" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="17">
+      <c r="AB24" s="34">
+        <v>855</v>
+      </c>
+      <c r="AC24" s="34">
+        <v>349</v>
+      </c>
+      <c r="AD24" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="17">
         <v>32</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="1">
-        <f>AVERAGE(J3:J23)</f>
+      <c r="L26" s="1">
+        <f>AVERAGE(L4:L24)</f>
         <v>34.65014285714286</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" ref="K25:R25" si="0">AVERAGE(K3:K23)</f>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:T26" si="0">AVERAGE(M4:M24)</f>
         <v>1.6348190476190474</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N26" s="1">
         <f t="shared" si="0"/>
-        <v>0.98398095238095229</v>
-      </c>
-      <c r="N25" s="1">
+        <v>0.98398095238095218</v>
+      </c>
+      <c r="P26" s="1">
         <f t="shared" si="0"/>
         <v>14.638257142857142</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="0"/>
         <v>9.8933238095238085</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R26" s="1">
         <f t="shared" si="0"/>
         <v>0.43128571428571433</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="S26" s="1">
         <f t="shared" si="0"/>
         <v>8.9122619047619054</v>
       </c>
-      <c r="R25" s="1">
+      <c r="T26" s="1">
         <f t="shared" si="0"/>
         <v>7.4985476190476179</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="1">
-        <f>MIN(J3:J23)</f>
+      <c r="L27" s="1">
+        <f>MIN(L4:L24)</f>
         <v>22.1127</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" ref="K26:R26" si="1">MIN(K3:K23)</f>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:T27" si="1">MIN(M4:M24)</f>
         <v>1.3375999999999999</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N27" s="1">
         <f t="shared" si="1"/>
         <v>0.80779999999999996</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P27" s="1">
         <f t="shared" si="1"/>
         <v>6.1425000000000001</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q27" s="1">
         <f t="shared" si="1"/>
         <v>4.9195000000000002</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R27" s="1">
         <f t="shared" si="1"/>
         <v>0.39529999999999998</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="S27" s="1">
         <f t="shared" si="1"/>
         <v>4.3106999999999998</v>
       </c>
-      <c r="R26" s="1">
+      <c r="T27" s="1">
         <f t="shared" si="1"/>
         <v>4.5091000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="1">
-        <f>MAX(J3:J23)</f>
+      <c r="L28" s="1">
+        <f>MAX(L4:L24)</f>
         <v>50.623600000000003</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" ref="K27:R27" si="2">MAX(K3:K23)</f>
+      <c r="M28" s="1">
+        <f t="shared" ref="M28:T28" si="2">MAX(M4:M24)</f>
         <v>2.0184000000000002</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="2"/>
         <v>1.3385</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P28" s="1">
         <f t="shared" si="2"/>
         <v>30.735800000000001</v>
       </c>
-      <c r="O27" s="1">
+      <c r="Q28" s="1">
         <f t="shared" si="2"/>
         <v>14.437900000000001</v>
       </c>
-      <c r="P27" s="1">
+      <c r="R28" s="1">
         <f t="shared" si="2"/>
         <v>0.46350000000000002</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="S28" s="1">
         <f t="shared" si="2"/>
         <v>13.812200000000001</v>
       </c>
-      <c r="R27" s="1">
+      <c r="T28" s="1">
         <f t="shared" si="2"/>
         <v>11.467499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="1" t="s">
+    <row r="30" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2.5552000000000001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.5078</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.0468999999999999</v>
+      </c>
+      <c r="O30" s="23">
+        <f>M30+N30</f>
+        <v>2.5547</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD31"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD32"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
+    <row r="34" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
+    <row r="35" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+    <row r="37" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
+    <row r="38" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
+    <row r="39" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="42" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="43" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="44" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="45" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+    <row r="46" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+    <row r="47" spans="3:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB23" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB23">
-      <sortCondition ref="AA2:AA23"/>
+  <autoFilter ref="A3:AG24" xr:uid="{882D1967-66C6-9543-B52A-D374E5C3D1B9}">
+    <filterColumn colId="31">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AG24">
+      <sortCondition ref="A3:A24"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="T1:Y1"/>
+  <mergeCells count="7">
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/log/response_log.xlsx
+++ b/log/response_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin.t/Desktop/Projects/mhesi/test_result_analysis_recommendation_orchestrator_api/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1C5EA3F-B7A3-8F45-B9F8-F2C0F3A705FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27ABD2-8F0E-6848-8CFC-5FD6CA6B867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{71E47B97-443C-F449-9D3D-356D656D0A60}"/>
   </bookViews>
@@ -23,7 +23,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'response_log_csv (3)'!$A$2:$AJ$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'response_log_csv (4)'!$A$3:$AG$24</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -656,8 +669,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1174,7 +1187,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1191,14 +1204,11 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1224,39 +1234,26 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1266,6 +1263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1680,35 +1680,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3906,38 +3906,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4042,37 +4042,37 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="20">
         <v>26.511099999999999</v>
       </c>
       <c r="M3" s="7">
@@ -4081,14 +4081,14 @@
       <c r="N3" s="7">
         <v>0.9103</v>
       </c>
-      <c r="O3" s="11">
-        <f>M3+N3</f>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O23" si="0">M3+N3</f>
         <v>2.5347</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>9.8414000000000001</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>9.6252999999999993</v>
       </c>
       <c r="R3" s="6">
@@ -4097,7 +4097,7 @@
       <c r="S3" s="7">
         <v>8.077</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>4.5091000000000001</v>
       </c>
       <c r="V3" s="7">
@@ -4118,10 +4118,10 @@
       <c r="AA3" s="7">
         <v>218</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>4</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <v>5</v>
       </c>
       <c r="AD3" s="1" t="s">
@@ -4133,91 +4133,91 @@
       <c r="AG3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AH3" s="27" t="s">
+      <c r="AH3" s="22" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="19">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="7">
         <v>25.857900000000001</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="7">
         <v>1.6840999999999999</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="7">
         <v>1.0232000000000001</v>
       </c>
-      <c r="O4" s="20">
-        <f>M4+N4</f>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
         <v>2.7073</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="7">
         <v>7.6795999999999998</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="7">
         <v>8.7030999999999992</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="6">
         <v>0.39910000000000001</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="7">
         <v>8.1353000000000009</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="7">
         <v>6.7605000000000004</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="1">
         <v>487</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="1">
         <v>160</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="1">
         <v>300</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="1">
         <v>207</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="1">
         <v>300</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="1">
         <v>207</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4">
         <v>1</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -4228,37 +4228,37 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="20">
         <v>27.6388</v>
       </c>
       <c r="M5" s="7">
@@ -4267,14 +4267,14 @@
       <c r="N5" s="7">
         <v>1.3385</v>
       </c>
-      <c r="O5" s="11">
-        <f>M5+N5</f>
+      <c r="O5" s="10">
+        <f t="shared" si="0"/>
         <v>2.9622999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>11.053800000000001</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>7.8822999999999999</v>
       </c>
       <c r="R5" s="6">
@@ -4283,7 +4283,7 @@
       <c r="S5" s="7">
         <v>7.3109000000000002</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>5.7397999999999998</v>
       </c>
       <c r="V5" s="7">
@@ -4304,10 +4304,10 @@
       <c r="AA5" s="7">
         <v>205.666666666666</v>
       </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="10">
+      <c r="AB5" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
         <v>6</v>
       </c>
       <c r="AD5" s="1" t="s">
@@ -4321,37 +4321,37 @@
       </c>
     </row>
     <row r="6" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>29.0748</v>
       </c>
       <c r="M6" s="7">
@@ -4360,14 +4360,14 @@
       <c r="N6" s="7">
         <v>0.92069999999999996</v>
       </c>
-      <c r="O6" s="11">
-        <f>M6+N6</f>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
         <v>2.4483999999999999</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>10.7882</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>8.2530999999999999</v>
       </c>
       <c r="R6" s="6">
@@ -4376,7 +4376,7 @@
       <c r="S6" s="7">
         <v>7.6355000000000004</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>7.5846999999999998</v>
       </c>
       <c r="V6" s="1">
@@ -4397,10 +4397,10 @@
       <c r="AA6" s="1">
         <v>217</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="8">
         <v>1</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="9">
         <v>3</v>
       </c>
       <c r="AF6" s="1" t="s">
@@ -4411,86 +4411,86 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="19">
-        <v>5</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="6">
         <v>27.408100000000001</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="7">
         <v>1.3975</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="7">
         <v>0.84730000000000005</v>
       </c>
-      <c r="O7" s="20">
-        <f>M7+N7</f>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
         <v>2.2448000000000001</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="7">
         <v>7.4112</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="7">
         <v>10.1774</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="6">
         <v>0.41830000000000001</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="7">
         <v>8.4649000000000001</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="7">
         <v>7.5739999999999998</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="7">
         <v>788</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="7">
         <v>268</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="7">
         <v>572</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="7">
         <v>460</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="Z7" s="7">
         <v>286</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="7">
         <v>230</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="1">
         <v>2</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7" s="1" t="s">
@@ -4504,37 +4504,37 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="20">
         <v>22.1127</v>
       </c>
       <c r="M8" s="7">
@@ -4543,14 +4543,14 @@
       <c r="N8" s="7">
         <v>1.02</v>
       </c>
-      <c r="O8" s="11">
-        <f>M8+N8</f>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
         <v>2.7595000000000001</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>9.6204000000000001</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>4.9195000000000002</v>
       </c>
       <c r="R8" s="6">
@@ -4559,7 +4559,7 @@
       <c r="S8" s="7">
         <v>4.3106999999999998</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>4.8125999999999998</v>
       </c>
       <c r="V8" s="7">
@@ -4580,10 +4580,10 @@
       <c r="AA8" s="7">
         <v>228</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="8">
         <v>1</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <v>3</v>
       </c>
       <c r="AD8" s="1" t="s">
@@ -4597,182 +4597,181 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="1">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.17</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="6">
         <v>24.503900000000002</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="7">
         <v>1.5172000000000001</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="7">
         <v>1.0229999999999999</v>
       </c>
-      <c r="O9" s="20">
-        <f>M9+N9</f>
+      <c r="O9" s="7">
+        <f t="shared" si="0"/>
         <v>2.5402</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="7">
         <v>6.4363999999999999</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="7">
         <v>6.0552999999999999</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="6">
         <v>0.39529999999999998</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="7">
         <v>5.4214000000000002</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="7">
         <v>9.4710000000000001</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="7">
         <v>487</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="7">
         <v>148</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="7">
         <v>300</v>
       </c>
-      <c r="Y9" s="20">
+      <c r="Y9" s="7">
         <v>220</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="7">
         <v>300</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="7">
         <v>220</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AD9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AF9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AG9" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="7">
         <v>43.564700000000002</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="7">
         <v>1.6375999999999999</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="7">
         <v>1.0741000000000001</v>
       </c>
-      <c r="O10" s="20">
-        <f>M10+N10</f>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
         <v>2.7117</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="7">
         <v>21.645</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="7">
         <v>12.289199999999999</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="6">
         <v>0.44419999999999998</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="7">
         <v>10.7524</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="7">
         <v>6.9180000000000001</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="1">
         <v>1234</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="1">
         <v>578</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="1">
         <v>1425</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="1">
         <v>1111</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="1">
         <v>285</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="1">
         <v>222.2</v>
       </c>
-      <c r="AB10" s="19">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="19"/>
+      <c r="AB10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
       <c r="AF10" s="1" t="s">
         <v>128</v>
       </c>
@@ -4781,89 +4780,88 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="7">
         <v>42.935400000000001</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="7">
         <v>1.7733000000000001</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="7">
         <v>1.0573999999999999</v>
       </c>
-      <c r="O11" s="20">
-        <f>M11+N11</f>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
         <v>2.8307000000000002</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="7">
         <v>21.552600000000002</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="7">
         <v>9.7521000000000004</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="6">
         <v>0.45590000000000003</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="7">
         <v>8.1346000000000007</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="7">
         <v>8.7988999999999997</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="1">
         <v>1803</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="1">
         <v>920</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="1">
         <v>1458</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="1">
         <v>1174</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="1">
         <v>291.60000000000002</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="1">
         <v>234.8</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="1">
         <v>8</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11">
         <v>8</v>
       </c>
-      <c r="AD11" s="19"/>
       <c r="AF11" s="1" t="s">
         <v>128</v>
       </c>
@@ -4872,37 +4870,37 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>29.283000000000001</v>
       </c>
       <c r="M12" s="7">
@@ -4911,14 +4909,14 @@
       <c r="N12" s="7">
         <v>0.83220000000000005</v>
       </c>
-      <c r="O12" s="11">
-        <f>M12+N12</f>
+      <c r="O12" s="10">
+        <f t="shared" si="0"/>
         <v>2.5678000000000001</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>11.662000000000001</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>9.4343000000000004</v>
       </c>
       <c r="R12" s="6">
@@ -4927,7 +4925,7 @@
       <c r="S12" s="7">
         <v>8.0478000000000005</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>5.6180000000000003</v>
       </c>
       <c r="V12" s="1">
@@ -4948,10 +4946,10 @@
       <c r="AA12" s="1">
         <v>197</v>
       </c>
-      <c r="AB12" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="10">
+      <c r="AB12" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="9">
         <v>8</v>
       </c>
       <c r="AF12" s="1" t="s">
@@ -4962,37 +4960,37 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
         <v>0.1</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <v>29.840499999999999</v>
       </c>
       <c r="M13" s="7">
@@ -5001,14 +4999,14 @@
       <c r="N13" s="7">
         <v>1.0221</v>
       </c>
-      <c r="O13" s="11">
-        <f>M13+N13</f>
+      <c r="O13" s="10">
+        <f t="shared" si="0"/>
         <v>2.5994999999999999</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>6.1425000000000001</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>10.3329</v>
       </c>
       <c r="R13" s="6">
@@ -5017,7 +5015,7 @@
       <c r="S13" s="7">
         <v>9.2669999999999995</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>10.764699999999999</v>
       </c>
       <c r="V13" s="7">
@@ -5038,10 +5036,10 @@
       <c r="AA13" s="7">
         <v>232</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="8">
         <v>1</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
@@ -5055,37 +5053,37 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="12">
-        <v>5</v>
-      </c>
-      <c r="G14" s="12">
-        <v>3</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="19">
         <v>38.019799999999996</v>
       </c>
       <c r="M14" s="7">
@@ -5094,14 +5092,14 @@
       <c r="N14" s="7">
         <v>1.0267999999999999</v>
       </c>
-      <c r="O14" s="13">
-        <f>M14+N14</f>
+      <c r="O14" s="12">
+        <f t="shared" si="0"/>
         <v>2.8167999999999997</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>14.771699999999999</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="12">
         <v>14.437900000000001</v>
       </c>
       <c r="R14" s="6">
@@ -5110,7 +5108,7 @@
       <c r="S14" s="7">
         <v>13.812200000000001</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <v>5.9924999999999997</v>
       </c>
       <c r="V14" s="7">
@@ -5131,10 +5129,10 @@
       <c r="AA14" s="7">
         <v>203.5</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="11">
         <v>4</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="13">
         <v>5</v>
       </c>
       <c r="AD14" s="1" t="s">
@@ -5148,37 +5146,37 @@
       </c>
     </row>
     <row r="15" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>3</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="12">
-        <v>5</v>
-      </c>
-      <c r="G15" s="12">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="19">
         <v>35.828200000000002</v>
       </c>
       <c r="M15" s="7">
@@ -5187,14 +5185,14 @@
       <c r="N15" s="7">
         <v>1.0330999999999999</v>
       </c>
-      <c r="O15" s="13">
-        <f>M15+N15</f>
+      <c r="O15" s="12">
+        <f t="shared" si="0"/>
         <v>2.6562999999999999</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>16.8873</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>9.5236000000000001</v>
       </c>
       <c r="R15" s="6">
@@ -5203,7 +5201,7 @@
       <c r="S15" s="7">
         <v>7.9451000000000001</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>6.7601000000000004</v>
       </c>
       <c r="V15" s="7">
@@ -5224,10 +5222,10 @@
       <c r="AA15" s="7">
         <v>226</v>
       </c>
-      <c r="AB15" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="14">
+      <c r="AB15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="13">
         <v>5</v>
       </c>
       <c r="AD15" s="1" t="s">
@@ -5241,37 +5239,37 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="19">
         <v>35.219200000000001</v>
       </c>
       <c r="M16" s="7">
@@ -5280,14 +5278,14 @@
       <c r="N16" s="7">
         <v>0.86599999999999999</v>
       </c>
-      <c r="O16" s="13">
-        <f>M16+N16</f>
+      <c r="O16" s="12">
+        <f t="shared" si="0"/>
         <v>2.3864999999999998</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>14.188800000000001</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>11.678599999999999</v>
       </c>
       <c r="R16" s="6">
@@ -5296,7 +5294,7 @@
       <c r="S16" s="7">
         <v>10.6243</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>6.9645999999999999</v>
       </c>
       <c r="V16" s="7">
@@ -5317,10 +5315,10 @@
       <c r="AA16" s="7">
         <v>221</v>
       </c>
-      <c r="AB16" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="14">
+      <c r="AB16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="13">
         <v>8</v>
       </c>
       <c r="AD16" s="1" t="s">
@@ -5334,37 +5332,37 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="19">
         <v>36.7517</v>
       </c>
       <c r="M17" s="7">
@@ -5373,14 +5371,14 @@
       <c r="N17" s="7">
         <v>0.92249999999999999</v>
       </c>
-      <c r="O17" s="13">
-        <f>M17+N17</f>
+      <c r="O17" s="12">
+        <f t="shared" si="0"/>
         <v>2.6492</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>15.6648</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>10.7546</v>
       </c>
       <c r="R17" s="6">
@@ -5389,7 +5387,7 @@
       <c r="S17" s="7">
         <v>10.1648</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <v>7.6822999999999997</v>
       </c>
       <c r="V17" s="7">
@@ -5410,10 +5408,10 @@
       <c r="AA17" s="7">
         <v>195</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AB17" s="11">
         <v>4</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="13">
         <v>5</v>
       </c>
       <c r="AD17" s="1" t="s">
@@ -5426,39 +5424,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+    <row r="18" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="12">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="19">
         <v>33.251600000000003</v>
       </c>
       <c r="M18" s="7">
@@ -5467,14 +5464,14 @@
       <c r="N18" s="7">
         <v>1.0377000000000001</v>
       </c>
-      <c r="O18" s="13">
-        <f>M18+N18</f>
+      <c r="O18" s="12">
+        <f t="shared" si="0"/>
         <v>2.4611000000000001</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>13.706200000000001</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>9.2213999999999992</v>
       </c>
       <c r="R18" s="6">
@@ -5483,10 +5480,9 @@
       <c r="S18" s="7">
         <v>8.6508000000000003</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="12">
         <v>7.8621999999999996</v>
       </c>
-      <c r="U18" s="4"/>
       <c r="V18" s="7">
         <v>1328</v>
       </c>
@@ -5505,16 +5501,15 @@
       <c r="AA18" s="7">
         <v>225.5</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AB18" s="11">
         <v>4</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="13">
         <v>6</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AE18" s="4"/>
       <c r="AF18" s="1" t="s">
         <v>125</v>
       </c>
@@ -5522,39 +5517,38 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="19" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="12">
-        <v>5</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
         <v>0.17</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>36.6417</v>
       </c>
       <c r="M19" s="7">
@@ -5563,14 +5557,14 @@
       <c r="N19" s="7">
         <v>0.93799999999999994</v>
       </c>
-      <c r="O19" s="13">
-        <f>M19+N19</f>
+      <c r="O19" s="12">
+        <f t="shared" si="0"/>
         <v>2.6948999999999996</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>12.5382</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>12.494300000000001</v>
       </c>
       <c r="R19" s="6">
@@ -5579,10 +5573,9 @@
       <c r="S19" s="7">
         <v>11.8475</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="12">
         <v>8.9131999999999998</v>
       </c>
-      <c r="U19" s="4"/>
       <c r="V19" s="1">
         <v>1162</v>
       </c>
@@ -5601,149 +5594,144 @@
       <c r="AA19" s="1">
         <v>196.25</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="11">
         <v>4</v>
       </c>
-      <c r="AC19" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="19" t="s">
+      <c r="AC19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG19" s="19" t="s">
+      <c r="AG19" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="19">
-        <v>5</v>
-      </c>
-      <c r="G20" s="19">
-        <v>3</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="6">
         <v>32.470399999999998</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="7">
         <v>1.3375999999999999</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="7">
         <v>0.80779999999999996</v>
       </c>
-      <c r="O20" s="20">
-        <f>M20+N20</f>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
         <v>2.1454</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="7">
         <v>14.038600000000001</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="7">
         <v>9.73</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="6">
         <v>0.45040000000000002</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="7">
         <v>8.5277999999999992</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="7">
         <v>6.5545999999999998</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="20">
+      <c r="V20" s="7">
         <v>1746</v>
       </c>
-      <c r="W20" s="20">
+      <c r="W20" s="7">
         <v>562</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="7">
         <v>1113</v>
       </c>
-      <c r="Y20" s="20">
+      <c r="Y20" s="7">
         <v>856</v>
       </c>
-      <c r="Z20" s="20">
+      <c r="Z20" s="7">
         <v>278.25</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="7">
         <v>214</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="1">
         <v>4</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="AC20">
         <v>8</v>
       </c>
-      <c r="AD20" s="19" t="s">
+      <c r="AD20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="19" t="s">
+      <c r="AF20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AG20" s="19" t="s">
+      <c r="AG20" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>17</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="15">
-        <v>5</v>
-      </c>
-      <c r="G21" s="15">
-        <v>3</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="F21" s="14">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="21">
         <v>49.535699999999999</v>
       </c>
       <c r="M21" s="7">
@@ -5752,14 +5740,14 @@
       <c r="N21" s="7">
         <v>0.96530000000000005</v>
       </c>
-      <c r="O21" s="16">
-        <f>M21+N21</f>
+      <c r="O21" s="15">
+        <f t="shared" si="0"/>
         <v>2.9837000000000002</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>25.7651</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="15">
         <v>9.3183000000000007</v>
       </c>
       <c r="R21" s="6">
@@ -5768,7 +5756,7 @@
       <c r="S21" s="7">
         <v>8.0381</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="15">
         <v>11.467499999999999</v>
       </c>
       <c r="V21" s="7">
@@ -5789,10 +5777,10 @@
       <c r="AA21" s="7">
         <v>220.6</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="14">
         <v>8</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="16">
         <v>30</v>
       </c>
       <c r="AD21" s="1" t="s">
@@ -5806,37 +5794,37 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>25</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="15">
-        <v>5</v>
-      </c>
-      <c r="G22" s="15">
-        <v>3</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="14">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="21">
         <v>50.580199999999998</v>
       </c>
       <c r="M22" s="7">
@@ -5845,14 +5833,14 @@
       <c r="N22" s="7">
         <v>0.94840000000000002</v>
       </c>
-      <c r="O22" s="16">
-        <f>M22+N22</f>
+      <c r="O22" s="15">
+        <f t="shared" si="0"/>
         <v>2.4708999999999999</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>25.273800000000001</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="15">
         <v>12.363</v>
       </c>
       <c r="R22" s="6">
@@ -5861,7 +5849,7 @@
       <c r="S22" s="7">
         <v>11.8233</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="15">
         <v>10.471399999999999</v>
       </c>
       <c r="V22" s="7">
@@ -5882,10 +5870,10 @@
       <c r="AA22" s="7">
         <v>231.8</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="14">
         <v>8</v>
       </c>
-      <c r="AC22" s="17">
+      <c r="AC22" s="16">
         <v>32</v>
       </c>
       <c r="AD22" s="1" t="s">
@@ -5899,37 +5887,37 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>26</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>3</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="14">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="21">
         <v>50.623600000000003</v>
       </c>
       <c r="M23" s="7">
@@ -5938,14 +5926,14 @@
       <c r="N23" s="7">
         <v>1.0491999999999999</v>
       </c>
-      <c r="O23" s="16">
-        <f>M23+N23</f>
+      <c r="O23" s="15">
+        <f t="shared" si="0"/>
         <v>2.8231000000000002</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <v>30.735800000000001</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="15">
         <v>10.813599999999999</v>
       </c>
       <c r="R23" s="6">
@@ -5954,7 +5942,7 @@
       <c r="S23" s="7">
         <v>10.1661</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="15">
         <v>6.2497999999999996</v>
       </c>
       <c r="V23" s="7">
@@ -5975,10 +5963,10 @@
       <c r="AA23" s="7">
         <v>218.2</v>
       </c>
-      <c r="AB23" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="17">
+      <c r="AB23" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="16">
         <v>32</v>
       </c>
       <c r="AD23" s="1" t="s">
@@ -6000,31 +5988,31 @@
         <v>34.65014285714286</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:T25" si="0">AVERAGE(M3:M23)</f>
+        <f t="shared" ref="M25:T25" si="1">AVERAGE(M3:M23)</f>
         <v>1.6348190476190474</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98398095238095218</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.638257142857142</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8933238095238085</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43128571428571438</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9122619047619036</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4985476190476179</v>
       </c>
     </row>
@@ -6037,31 +6025,31 @@
         <v>22.1127</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ref="M26:T26" si="1">MIN(M3:M23)</f>
+        <f t="shared" ref="M26:T26" si="2">MIN(M3:M23)</f>
         <v>1.3375999999999999</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80779999999999996</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1425000000000001</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9195000000000002</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39529999999999998</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3106999999999998</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5091000000000001</v>
       </c>
     </row>
@@ -6074,31 +6062,31 @@
         <v>50.623600000000003</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27:T27" si="2">MAX(M3:M23)</f>
+        <f t="shared" ref="M27:T27" si="3">MAX(M3:M23)</f>
         <v>2.0184000000000002</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3385</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.735800000000001</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.437900000000001</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46350000000000002</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.812200000000001</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.467499999999999</v>
       </c>
     </row>
@@ -6139,7 +6127,7 @@
       <c r="N29" s="1">
         <v>1.0468999999999999</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="18">
         <f>M29+N29</f>
         <v>2.5547</v>
       </c>
@@ -6235,7 +6223,7 @@
       <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -6339,38 +6327,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6475,37 +6463,37 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="20">
         <v>26.511099999999999</v>
       </c>
       <c r="M3" s="7">
@@ -6514,14 +6502,14 @@
       <c r="N3" s="7">
         <v>0.9103</v>
       </c>
-      <c r="O3" s="11">
-        <f>M3+N3</f>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O23" si="0">M3+N3</f>
         <v>2.5347</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>9.8414000000000001</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>9.6252999999999993</v>
       </c>
       <c r="R3" s="6">
@@ -6530,7 +6518,7 @@
       <c r="S3" s="7">
         <v>8.077</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>4.5091000000000001</v>
       </c>
       <c r="V3" s="1">
@@ -6551,10 +6539,10 @@
       <c r="AA3" s="1">
         <v>218</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>4</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <v>5</v>
       </c>
       <c r="AD3" s="1" t="s">
@@ -6566,94 +6554,94 @@
       <c r="AG3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AH3" s="27" t="s">
+      <c r="AH3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AI3" s="27" t="s">
+      <c r="AI3" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="19">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="7">
         <v>25.857900000000001</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="7">
         <v>1.6840999999999999</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="7">
         <v>1.0232000000000001</v>
       </c>
-      <c r="O4" s="20">
-        <f>M4+N4</f>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
         <v>2.7073</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="7">
         <v>7.6795999999999998</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="7">
         <v>8.7030999999999992</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="6">
         <v>0.39910000000000001</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="7">
         <v>8.1353000000000009</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="7">
         <v>6.7605000000000004</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="1">
         <v>487</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="1">
         <v>160</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="1">
         <v>300</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="1">
         <v>207</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="1">
         <v>300</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="1">
         <v>207</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="22">
+      <c r="AC4">
         <v>1</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -6664,37 +6652,37 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="20">
         <v>27.6388</v>
       </c>
       <c r="M5" s="7">
@@ -6703,14 +6691,14 @@
       <c r="N5" s="7">
         <v>1.3385</v>
       </c>
-      <c r="O5" s="11">
-        <f>M5+N5</f>
+      <c r="O5" s="10">
+        <f t="shared" si="0"/>
         <v>2.9622999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>11.053800000000001</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>7.8822999999999999</v>
       </c>
       <c r="R5" s="6">
@@ -6719,7 +6707,7 @@
       <c r="S5" s="7">
         <v>7.3109000000000002</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>5.7397999999999998</v>
       </c>
       <c r="V5" s="1">
@@ -6740,10 +6728,10 @@
       <c r="AA5" s="1">
         <v>205.666666666666</v>
       </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="10">
+      <c r="AB5" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
         <v>6</v>
       </c>
       <c r="AD5" s="1" t="s">
@@ -6755,45 +6743,45 @@
       <c r="AG5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AH5" s="27" t="s">
+      <c r="AH5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>29.0748</v>
       </c>
       <c r="M6" s="7">
@@ -6802,14 +6790,14 @@
       <c r="N6" s="7">
         <v>0.92069999999999996</v>
       </c>
-      <c r="O6" s="11">
-        <f>M6+N6</f>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
         <v>2.4483999999999999</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>10.7882</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>8.2530999999999999</v>
       </c>
       <c r="R6" s="6">
@@ -6818,7 +6806,7 @@
       <c r="S6" s="7">
         <v>7.6355000000000004</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>7.5846999999999998</v>
       </c>
       <c r="V6" s="1">
@@ -6839,10 +6827,10 @@
       <c r="AA6" s="1">
         <v>217</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="8">
         <v>1</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="9">
         <v>3</v>
       </c>
       <c r="AF6" s="1" t="s">
@@ -6853,86 +6841,86 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="19">
-        <v>5</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="6">
         <v>27.408100000000001</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="7">
         <v>1.3975</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="7">
         <v>0.84730000000000005</v>
       </c>
-      <c r="O7" s="20">
-        <f>M7+N7</f>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
         <v>2.2448000000000001</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="7">
         <v>7.4112</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="7">
         <v>10.1774</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="6">
         <v>0.41830000000000001</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="7">
         <v>8.4649000000000001</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="7">
         <v>7.5739999999999998</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="1">
         <v>788</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="1">
         <v>268</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="1">
         <v>572</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="1">
         <v>460</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="1">
         <v>286</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="1">
         <v>230</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="1">
         <v>2</v>
       </c>
-      <c r="AC7" s="22">
+      <c r="AC7">
         <v>3</v>
       </c>
       <c r="AD7" s="1" t="s">
@@ -6944,45 +6932,45 @@
       <c r="AG7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AH7" s="27" t="s">
+      <c r="AH7" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="20">
         <v>22.1127</v>
       </c>
       <c r="M8" s="7">
@@ -6991,14 +6979,14 @@
       <c r="N8" s="7">
         <v>1.02</v>
       </c>
-      <c r="O8" s="11">
-        <f>M8+N8</f>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
         <v>2.7595000000000001</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>9.6204000000000001</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>4.9195000000000002</v>
       </c>
       <c r="R8" s="6">
@@ -7007,7 +6995,7 @@
       <c r="S8" s="7">
         <v>4.3106999999999998</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>4.8125999999999998</v>
       </c>
       <c r="V8" s="1">
@@ -7028,10 +7016,10 @@
       <c r="AA8" s="1">
         <v>228</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="8">
         <v>1</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <v>3</v>
       </c>
       <c r="AD8" s="1" t="s">
@@ -7046,193 +7034,192 @@
       <c r="AH8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="1">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.17</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="6">
         <v>24.503900000000002</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="7">
         <v>1.5172000000000001</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="7">
         <v>1.0229999999999999</v>
       </c>
-      <c r="O9" s="20">
-        <f>M9+N9</f>
+      <c r="O9" s="7">
+        <f t="shared" si="0"/>
         <v>2.5402</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="7">
         <v>6.4363999999999999</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="7">
         <v>6.0552999999999999</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="6">
         <v>0.39529999999999998</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="7">
         <v>5.4214000000000002</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="7">
         <v>9.4710000000000001</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="1">
         <v>487</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="1">
         <v>148</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="1">
         <v>300</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y9" s="1">
         <v>220</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="1">
         <v>300</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="1">
         <v>220</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AD9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AF9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AG9" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AI9" s="27" t="s">
+      <c r="AI9" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="7">
         <v>43.564700000000002</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="7">
         <v>1.6375999999999999</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="7">
         <v>1.0741000000000001</v>
       </c>
-      <c r="O10" s="20">
-        <f>M10+N10</f>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
         <v>2.7117</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="7">
         <v>21.645</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="7">
         <v>12.289199999999999</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="6">
         <v>0.44419999999999998</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="7">
         <v>10.7524</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="7">
         <v>6.9180000000000001</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="1">
         <v>1234</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="1">
         <v>578</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="1">
         <v>1425</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="1">
         <v>1111</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="1">
         <v>285</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="1">
         <v>222.2</v>
       </c>
-      <c r="AB10" s="19">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="19"/>
+      <c r="AB10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
       <c r="AF10" s="1" t="s">
         <v>128</v>
       </c>
@@ -7241,89 +7228,88 @@
       </c>
     </row>
     <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="7">
         <v>42.935400000000001</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="7">
         <v>1.7733000000000001</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="7">
         <v>1.0573999999999999</v>
       </c>
-      <c r="O11" s="20">
-        <f>M11+N11</f>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
         <v>2.8307000000000002</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="7">
         <v>21.552600000000002</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="7">
         <v>9.7521000000000004</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="6">
         <v>0.45590000000000003</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="7">
         <v>8.1346000000000007</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="7">
         <v>8.7988999999999997</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="1">
         <v>1803</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="1">
         <v>920</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="1">
         <v>1458</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="1">
         <v>1174</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="1">
         <v>291.60000000000002</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="1">
         <v>234.8</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="1">
         <v>8</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11">
         <v>8</v>
       </c>
-      <c r="AD11" s="19"/>
       <c r="AF11" s="1" t="s">
         <v>128</v>
       </c>
@@ -7332,37 +7318,37 @@
       </c>
     </row>
     <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>29.283000000000001</v>
       </c>
       <c r="M12" s="7">
@@ -7371,14 +7357,14 @@
       <c r="N12" s="7">
         <v>0.83220000000000005</v>
       </c>
-      <c r="O12" s="11">
-        <f>M12+N12</f>
+      <c r="O12" s="10">
+        <f t="shared" si="0"/>
         <v>2.5678000000000001</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>11.662000000000001</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>9.4343000000000004</v>
       </c>
       <c r="R12" s="6">
@@ -7387,7 +7373,7 @@
       <c r="S12" s="7">
         <v>8.0478000000000005</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>5.6180000000000003</v>
       </c>
       <c r="V12" s="1">
@@ -7408,10 +7394,10 @@
       <c r="AA12" s="1">
         <v>197</v>
       </c>
-      <c r="AB12" s="9">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="10">
+      <c r="AB12" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="9">
         <v>8</v>
       </c>
       <c r="AF12" s="1" t="s">
@@ -7422,37 +7408,37 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
         <v>0.1</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <v>29.840499999999999</v>
       </c>
       <c r="M13" s="7">
@@ -7461,14 +7447,14 @@
       <c r="N13" s="7">
         <v>1.0221</v>
       </c>
-      <c r="O13" s="11">
-        <f>M13+N13</f>
+      <c r="O13" s="10">
+        <f t="shared" si="0"/>
         <v>2.5994999999999999</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>6.1425000000000001</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>10.3329</v>
       </c>
       <c r="R13" s="6">
@@ -7477,7 +7463,7 @@
       <c r="S13" s="7">
         <v>9.2669999999999995</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>10.764699999999999</v>
       </c>
       <c r="V13" s="1">
@@ -7498,10 +7484,10 @@
       <c r="AA13" s="1">
         <v>232</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="8">
         <v>1</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>1</v>
       </c>
       <c r="AD13" s="1" t="s">
@@ -7516,42 +7502,42 @@
       <c r="AH13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AI13" s="27" t="s">
+      <c r="AI13" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="12">
-        <v>5</v>
-      </c>
-      <c r="G14" s="12">
-        <v>3</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="19">
         <v>38.019799999999996</v>
       </c>
       <c r="M14" s="7">
@@ -7560,14 +7546,14 @@
       <c r="N14" s="7">
         <v>1.0267999999999999</v>
       </c>
-      <c r="O14" s="13">
-        <f>M14+N14</f>
+      <c r="O14" s="12">
+        <f t="shared" si="0"/>
         <v>2.8167999999999997</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>14.771699999999999</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="12">
         <v>14.437900000000001</v>
       </c>
       <c r="R14" s="6">
@@ -7576,7 +7562,7 @@
       <c r="S14" s="7">
         <v>13.812200000000001</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <v>5.9924999999999997</v>
       </c>
       <c r="V14" s="1">
@@ -7597,10 +7583,10 @@
       <c r="AA14" s="1">
         <v>203.5</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="11">
         <v>4</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="13">
         <v>5</v>
       </c>
       <c r="AD14" s="1" t="s">
@@ -7612,45 +7598,45 @@
       <c r="AG14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AH14" s="27" t="s">
+      <c r="AH14" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="AI14" s="27" t="s">
+      <c r="AI14" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>3</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="12">
-        <v>5</v>
-      </c>
-      <c r="G15" s="12">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="19">
         <v>35.828200000000002</v>
       </c>
       <c r="M15" s="7">
@@ -7659,14 +7645,14 @@
       <c r="N15" s="7">
         <v>1.0330999999999999</v>
       </c>
-      <c r="O15" s="13">
-        <f>M15+N15</f>
+      <c r="O15" s="12">
+        <f t="shared" si="0"/>
         <v>2.6562999999999999</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>16.8873</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>9.5236000000000001</v>
       </c>
       <c r="R15" s="6">
@@ -7675,7 +7661,7 @@
       <c r="S15" s="7">
         <v>7.9451000000000001</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>6.7601000000000004</v>
       </c>
       <c r="V15" s="1">
@@ -7696,10 +7682,10 @@
       <c r="AA15" s="1">
         <v>226</v>
       </c>
-      <c r="AB15" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="14">
+      <c r="AB15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="13">
         <v>5</v>
       </c>
       <c r="AD15" s="1" t="s">
@@ -7711,45 +7697,45 @@
       <c r="AG15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH15" s="27" t="s">
+      <c r="AH15" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="AI15" s="27" t="s">
+      <c r="AI15" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="19">
         <v>35.219200000000001</v>
       </c>
       <c r="M16" s="7">
@@ -7758,14 +7744,14 @@
       <c r="N16" s="7">
         <v>0.86599999999999999</v>
       </c>
-      <c r="O16" s="13">
-        <f>M16+N16</f>
+      <c r="O16" s="12">
+        <f t="shared" si="0"/>
         <v>2.3864999999999998</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>14.188800000000001</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>11.678599999999999</v>
       </c>
       <c r="R16" s="6">
@@ -7774,7 +7760,7 @@
       <c r="S16" s="7">
         <v>10.6243</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>6.9645999999999999</v>
       </c>
       <c r="V16" s="1">
@@ -7795,10 +7781,10 @@
       <c r="AA16" s="1">
         <v>221</v>
       </c>
-      <c r="AB16" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="14">
+      <c r="AB16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="13">
         <v>8</v>
       </c>
       <c r="AD16" s="1" t="s">
@@ -7810,45 +7796,45 @@
       <c r="AG16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH16" s="27" t="s">
+      <c r="AH16" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AI16" s="27" t="s">
+      <c r="AI16" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="19">
         <v>36.7517</v>
       </c>
       <c r="M17" s="7">
@@ -7857,14 +7843,14 @@
       <c r="N17" s="7">
         <v>0.92249999999999999</v>
       </c>
-      <c r="O17" s="13">
-        <f>M17+N17</f>
+      <c r="O17" s="12">
+        <f t="shared" si="0"/>
         <v>2.6492</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>15.6648</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>10.7546</v>
       </c>
       <c r="R17" s="6">
@@ -7873,7 +7859,7 @@
       <c r="S17" s="7">
         <v>10.1648</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <v>7.6822999999999997</v>
       </c>
       <c r="V17" s="1">
@@ -7894,10 +7880,10 @@
       <c r="AA17" s="1">
         <v>195</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AB17" s="11">
         <v>4</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="13">
         <v>5</v>
       </c>
       <c r="AD17" s="1" t="s">
@@ -7909,46 +7895,45 @@
       <c r="AG17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AH17" s="27" t="s">
+      <c r="AH17" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AI17" s="27" t="s">
+      <c r="AI17" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="19" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+    <row r="18" spans="1:35" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="12">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="19">
         <v>33.251600000000003</v>
       </c>
       <c r="M18" s="7">
@@ -7957,14 +7942,14 @@
       <c r="N18" s="7">
         <v>1.0377000000000001</v>
       </c>
-      <c r="O18" s="13">
-        <f>M18+N18</f>
+      <c r="O18" s="12">
+        <f t="shared" si="0"/>
         <v>2.4611000000000001</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>13.706200000000001</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>9.2213999999999992</v>
       </c>
       <c r="R18" s="6">
@@ -7973,10 +7958,9 @@
       <c r="S18" s="7">
         <v>8.6508000000000003</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="12">
         <v>7.8621999999999996</v>
       </c>
-      <c r="U18" s="4"/>
       <c r="V18" s="1">
         <v>1328</v>
       </c>
@@ -7995,62 +7979,60 @@
       <c r="AA18" s="1">
         <v>225.5</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AB18" s="11">
         <v>4</v>
       </c>
-      <c r="AC18" s="14">
+      <c r="AC18" s="13">
         <v>6</v>
       </c>
       <c r="AD18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AE18" s="4"/>
       <c r="AF18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AH18" s="28" t="s">
+      <c r="AH18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AI18" s="28" t="s">
+      <c r="AI18" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="12">
-        <v>5</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
         <v>0.17</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>36.6417</v>
       </c>
       <c r="M19" s="7">
@@ -8059,14 +8041,14 @@
       <c r="N19" s="7">
         <v>0.93799999999999994</v>
       </c>
-      <c r="O19" s="13">
-        <f>M19+N19</f>
+      <c r="O19" s="12">
+        <f t="shared" si="0"/>
         <v>2.6948999999999996</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>12.5382</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>12.494300000000001</v>
       </c>
       <c r="R19" s="6">
@@ -8075,10 +8057,9 @@
       <c r="S19" s="7">
         <v>11.8475</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="12">
         <v>8.9131999999999998</v>
       </c>
-      <c r="U19" s="4"/>
       <c r="V19" s="1">
         <v>1162</v>
       </c>
@@ -8097,155 +8078,150 @@
       <c r="AA19" s="1">
         <v>196.25</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="11">
         <v>4</v>
       </c>
-      <c r="AC19" s="14">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="19" t="s">
+      <c r="AC19" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG19" s="19" t="s">
+      <c r="AG19" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="19" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:35" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="19">
-        <v>5</v>
-      </c>
-      <c r="G20" s="19">
-        <v>3</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="6">
         <v>32.470399999999998</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="7">
         <v>1.3375999999999999</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="7">
         <v>0.80779999999999996</v>
       </c>
-      <c r="O20" s="20">
-        <f>M20+N20</f>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
         <v>2.1454</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="7">
         <v>14.038600000000001</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="7">
         <v>9.73</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="6">
         <v>0.45040000000000002</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="7">
         <v>8.5277999999999992</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="7">
         <v>6.5545999999999998</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="19">
+      <c r="V20" s="1">
         <v>1746</v>
       </c>
-      <c r="W20" s="19">
+      <c r="W20" s="1">
         <v>562</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="1">
         <v>1113</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Y20" s="1">
         <v>856</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="1">
         <v>278.25</v>
       </c>
-      <c r="AA20" s="19">
+      <c r="AA20" s="1">
         <v>214</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="1">
         <v>4</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="AC20">
         <v>8</v>
       </c>
-      <c r="AD20" s="19" t="s">
+      <c r="AD20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="19" t="s">
+      <c r="AF20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AG20" s="19" t="s">
+      <c r="AG20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AH20" s="28" t="s">
+      <c r="AH20" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AI20" s="19" t="s">
+      <c r="AI20" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>17</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="15">
-        <v>5</v>
-      </c>
-      <c r="G21" s="15">
-        <v>3</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="F21" s="14">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="21">
         <v>49.535699999999999</v>
       </c>
       <c r="M21" s="7">
@@ -8254,14 +8230,14 @@
       <c r="N21" s="7">
         <v>0.96530000000000005</v>
       </c>
-      <c r="O21" s="16">
-        <f>M21+N21</f>
+      <c r="O21" s="15">
+        <f t="shared" si="0"/>
         <v>2.9837000000000002</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>25.7651</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="15">
         <v>9.3183000000000007</v>
       </c>
       <c r="R21" s="6">
@@ -8270,7 +8246,7 @@
       <c r="S21" s="7">
         <v>8.0381</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="15">
         <v>11.467499999999999</v>
       </c>
       <c r="V21" s="1">
@@ -8291,10 +8267,10 @@
       <c r="AA21" s="1">
         <v>220.6</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="14">
         <v>8</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="16">
         <v>30</v>
       </c>
       <c r="AD21" s="1" t="s">
@@ -8306,45 +8282,45 @@
       <c r="AG21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AH21" s="27" t="s">
+      <c r="AH21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AI21" s="27" t="s">
+      <c r="AI21" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>25</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="15">
-        <v>5</v>
-      </c>
-      <c r="G22" s="15">
-        <v>3</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="14">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="21">
         <v>50.580199999999998</v>
       </c>
       <c r="M22" s="7">
@@ -8353,14 +8329,14 @@
       <c r="N22" s="7">
         <v>0.94840000000000002</v>
       </c>
-      <c r="O22" s="16">
-        <f>M22+N22</f>
+      <c r="O22" s="15">
+        <f t="shared" si="0"/>
         <v>2.4708999999999999</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>25.273800000000001</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="15">
         <v>12.363</v>
       </c>
       <c r="R22" s="6">
@@ -8369,7 +8345,7 @@
       <c r="S22" s="7">
         <v>11.8233</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T22" s="15">
         <v>10.471399999999999</v>
       </c>
       <c r="V22" s="1">
@@ -8390,10 +8366,10 @@
       <c r="AA22" s="1">
         <v>231.8</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="14">
         <v>8</v>
       </c>
-      <c r="AC22" s="17">
+      <c r="AC22" s="16">
         <v>32</v>
       </c>
       <c r="AD22" s="1" t="s">
@@ -8405,45 +8381,45 @@
       <c r="AG22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AH22" s="27" t="s">
+      <c r="AH22" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="AI22" s="27" t="s">
+      <c r="AI22" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>26</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>3</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="14">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="21">
         <v>50.623600000000003</v>
       </c>
       <c r="M23" s="7">
@@ -8452,14 +8428,14 @@
       <c r="N23" s="7">
         <v>1.0491999999999999</v>
       </c>
-      <c r="O23" s="16">
-        <f>M23+N23</f>
+      <c r="O23" s="15">
+        <f t="shared" si="0"/>
         <v>2.8231000000000002</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <v>30.735800000000001</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="15">
         <v>10.813599999999999</v>
       </c>
       <c r="R23" s="6">
@@ -8468,7 +8444,7 @@
       <c r="S23" s="7">
         <v>10.1661</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="15">
         <v>6.2497999999999996</v>
       </c>
       <c r="V23" s="1">
@@ -8489,10 +8465,10 @@
       <c r="AA23" s="1">
         <v>218.2</v>
       </c>
-      <c r="AB23" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="17">
+      <c r="AB23" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="16">
         <v>32</v>
       </c>
       <c r="AD23" s="1" t="s">
@@ -8504,10 +8480,10 @@
       <c r="AG23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AH23" s="27" t="s">
+      <c r="AH23" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="AI23" s="27" t="s">
+      <c r="AI23" s="22" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8520,31 +8496,31 @@
         <v>34.65014285714286</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:T25" si="0">AVERAGE(M3:M23)</f>
+        <f t="shared" ref="M25:T25" si="1">AVERAGE(M3:M23)</f>
         <v>1.6348190476190474</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98398095238095218</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.638257142857142</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8933238095238085</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43128571428571438</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9122619047619036</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4985476190476179</v>
       </c>
     </row>
@@ -8557,31 +8533,31 @@
         <v>22.1127</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ref="M26:T26" si="1">MIN(M3:M23)</f>
+        <f t="shared" ref="M26:T26" si="2">MIN(M3:M23)</f>
         <v>1.3375999999999999</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80779999999999996</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1425000000000001</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9195000000000002</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39529999999999998</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3106999999999998</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5091000000000001</v>
       </c>
     </row>
@@ -8594,31 +8570,31 @@
         <v>50.623600000000003</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27:T27" si="2">MAX(M3:M23)</f>
+        <f t="shared" ref="M27:T27" si="3">MAX(M3:M23)</f>
         <v>2.0184000000000002</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3385</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.735800000000001</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.437900000000001</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46350000000000002</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.812200000000001</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.467499999999999</v>
       </c>
     </row>
@@ -8659,7 +8635,7 @@
       <c r="N29" s="1">
         <v>1.0468999999999999</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="18">
         <f>M29+N29</f>
         <v>2.5547</v>
       </c>
@@ -8755,7 +8731,7 @@
       <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -8812,10 +8788,10 @@
   <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -8829,17 +8805,17 @@
     <col min="8" max="8" width="17" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="9" max="9" width="8.33203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="3.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="21.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="14" max="14" width="22.1640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="15" max="15" width="16.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="16" max="16" width="17" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="25" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="19" max="19" width="17.6640625" style="1" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="20" max="20" width="23.5" style="1" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="21" max="21" width="3.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="25" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="23.5" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="19" max="19" width="17.6640625" style="1" customWidth="1" outlineLevel="2"/>
+    <col min="20" max="20" width="23.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="3.33203125" style="4" customWidth="1"/>
     <col min="22" max="29" width="13.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="20.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="25.33203125" customWidth="1"/>
@@ -8849,79 +8825,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
       <c r="AG1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="29"/>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9017,313 +8993,313 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="12">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="24">
-        <v>38.019799999999996</v>
+      <c r="K4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="20">
+        <v>26.511099999999999</v>
       </c>
       <c r="M4" s="7">
-        <v>1.79</v>
+        <v>1.6244000000000001</v>
       </c>
       <c r="N4" s="7">
-        <v>1.0267999999999999</v>
-      </c>
-      <c r="O4" s="13">
+        <v>0.9103</v>
+      </c>
+      <c r="O4" s="10">
         <f>M4+N4</f>
-        <v>2.8167999999999997</v>
-      </c>
-      <c r="P4" s="13">
-        <v>14.771699999999999</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>14.437900000000001</v>
+        <v>2.5347</v>
+      </c>
+      <c r="P4" s="10">
+        <v>9.8414000000000001</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>9.6252999999999993</v>
       </c>
       <c r="R4" s="6">
-        <v>0.432</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="S4" s="7">
-        <v>13.812200000000001</v>
-      </c>
-      <c r="T4" s="13">
-        <v>5.9924999999999997</v>
-      </c>
-      <c r="V4" s="32">
-        <v>1162</v>
-      </c>
-      <c r="W4" s="32">
-        <v>562</v>
-      </c>
-      <c r="X4" s="32">
-        <v>1028</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>814</v>
-      </c>
-      <c r="Z4" s="32">
-        <v>257</v>
-      </c>
-      <c r="AA4" s="32">
-        <v>203.5</v>
-      </c>
-      <c r="AB4" s="34">
-        <v>852</v>
-      </c>
-      <c r="AC4" s="34">
-        <v>339</v>
-      </c>
-      <c r="AD4" s="12">
+        <v>8.077</v>
+      </c>
+      <c r="T4" s="10">
+        <v>4.5091000000000001</v>
+      </c>
+      <c r="V4" s="26">
+        <v>1135</v>
+      </c>
+      <c r="W4" s="26">
+        <v>557</v>
+      </c>
+      <c r="X4" s="26">
+        <v>1149</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>872</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>287.25</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>218</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>832</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>249</v>
+      </c>
+      <c r="AD4" s="8">
         <v>4</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="9">
         <v>5</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="19">
-        <v>5</v>
-      </c>
-      <c r="G5" s="19">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="7">
         <v>25.857900000000001</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="7">
         <v>1.6840999999999999</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="7">
         <v>1.0232000000000001</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="7">
         <f>M5+N5</f>
         <v>2.7073</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="7">
         <v>7.6795999999999998</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="7">
         <v>8.7030999999999992</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="6">
         <v>0.39910000000000001</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="7">
         <v>8.1353000000000009</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="7">
         <v>6.7605000000000004</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="25">
         <v>487</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="25">
         <v>160</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="25">
         <v>300</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="25">
         <v>207</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="25">
         <v>300</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="25">
         <v>207</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="24">
         <v>1258</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="24">
         <v>279</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="1">
         <v>1</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="12">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12">
-        <v>3</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="24">
-        <v>35.828200000000002</v>
+      <c r="K6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="20">
+        <v>27.6388</v>
       </c>
       <c r="M6" s="7">
-        <v>1.6232</v>
+        <v>1.6237999999999999</v>
       </c>
       <c r="N6" s="7">
-        <v>1.0330999999999999</v>
-      </c>
-      <c r="O6" s="13">
+        <v>1.3385</v>
+      </c>
+      <c r="O6" s="10">
         <f>M6+N6</f>
-        <v>2.6562999999999999</v>
-      </c>
-      <c r="P6" s="13">
-        <v>16.8873</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>9.5236000000000001</v>
+        <v>2.9622999999999999</v>
+      </c>
+      <c r="P6" s="10">
+        <v>11.053800000000001</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>7.8822999999999999</v>
       </c>
       <c r="R6" s="6">
-        <v>0.43740000000000001</v>
+        <v>0.41660000000000003</v>
       </c>
       <c r="S6" s="7">
-        <v>7.9451000000000001</v>
-      </c>
-      <c r="T6" s="13">
-        <v>6.7601000000000004</v>
-      </c>
-      <c r="V6" s="32">
-        <v>1737</v>
-      </c>
-      <c r="W6" s="32">
-        <v>445</v>
-      </c>
-      <c r="X6" s="32">
-        <v>838</v>
-      </c>
-      <c r="Y6" s="32">
-        <v>678</v>
-      </c>
-      <c r="Z6" s="32">
-        <v>279.33333333333297</v>
-      </c>
-      <c r="AA6" s="32">
-        <v>226</v>
-      </c>
-      <c r="AB6" s="34">
-        <v>823</v>
-      </c>
-      <c r="AC6" s="34">
-        <v>364</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>5</v>
+        <v>7.3109000000000002</v>
+      </c>
+      <c r="T6" s="10">
+        <v>5.7397999999999998</v>
+      </c>
+      <c r="V6" s="26">
+        <v>1305</v>
+      </c>
+      <c r="W6" s="26">
+        <v>442</v>
+      </c>
+      <c r="X6" s="26">
+        <v>841</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>617</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>280.33333333333297</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>205.666666666666</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>798</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>252</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>6</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>29.0748</v>
       </c>
       <c r="M7" s="7">
@@ -9332,14 +9308,14 @@
       <c r="N7" s="7">
         <v>0.92069999999999996</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <f>M7+N7</f>
         <v>2.4483999999999999</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>10.7882</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>8.2530999999999999</v>
       </c>
       <c r="R7" s="6">
@@ -9348,533 +9324,531 @@
       <c r="S7" s="7">
         <v>7.6355000000000004</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>7.5846999999999998</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="23">
         <v>855</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="23">
         <v>231</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="23">
         <v>289</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="23">
         <v>217</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="23">
         <v>289</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="23">
         <v>217</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AB7" s="24">
         <v>811</v>
       </c>
-      <c r="AC7" s="30">
+      <c r="AC7" s="24">
         <v>314</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="8">
         <v>1</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="25">
-        <v>26.511099999999999</v>
+      <c r="L8" s="6">
+        <v>27.408100000000001</v>
       </c>
       <c r="M8" s="7">
-        <v>1.6244000000000001</v>
+        <v>1.3975</v>
       </c>
       <c r="N8" s="7">
-        <v>0.9103</v>
-      </c>
-      <c r="O8" s="11">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="O8" s="7">
         <f>M8+N8</f>
-        <v>2.5347</v>
-      </c>
-      <c r="P8" s="11">
-        <v>9.8414000000000001</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>9.6252999999999993</v>
+        <v>2.2448000000000001</v>
+      </c>
+      <c r="P8" s="7">
+        <v>7.4112</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>10.1774</v>
       </c>
       <c r="R8" s="6">
-        <v>0.45250000000000001</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="S8" s="7">
-        <v>8.077</v>
-      </c>
-      <c r="T8" s="11">
-        <v>4.5091000000000001</v>
-      </c>
-      <c r="V8" s="32">
-        <v>1135</v>
-      </c>
-      <c r="W8" s="32">
-        <v>557</v>
-      </c>
-      <c r="X8" s="32">
-        <v>1149</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>872</v>
-      </c>
-      <c r="Z8" s="32">
-        <v>287.25</v>
-      </c>
-      <c r="AA8" s="32">
-        <v>218</v>
-      </c>
-      <c r="AB8" s="34">
-        <v>832</v>
-      </c>
-      <c r="AC8" s="34">
-        <v>249</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="10">
-        <v>5</v>
+        <v>8.4649000000000001</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="V8" s="27">
+        <v>788</v>
+      </c>
+      <c r="W8" s="27">
+        <v>268</v>
+      </c>
+      <c r="X8" s="27">
+        <v>572</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>460</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>286</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>230</v>
+      </c>
+      <c r="AB8" s="28">
+        <v>807</v>
+      </c>
+      <c r="AC8" s="28">
+        <v>296</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="8">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="20">
+        <v>22.1127</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1.7395</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="O9" s="10">
+        <f>M9+N9</f>
+        <v>2.7595000000000001</v>
+      </c>
+      <c r="P9" s="10">
+        <v>9.6204000000000001</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>4.9195000000000002</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="S9" s="7">
+        <v>4.3106999999999998</v>
+      </c>
+      <c r="T9" s="10">
+        <v>4.8125999999999998</v>
+      </c>
+      <c r="V9" s="26">
+        <v>794</v>
+      </c>
+      <c r="W9" s="26">
+        <v>202</v>
+      </c>
+      <c r="X9" s="26">
+        <v>294</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>228</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>294</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>228</v>
+      </c>
+      <c r="AB9" s="28">
+        <v>793</v>
+      </c>
+      <c r="AC9" s="28">
+        <v>236</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="12">
-        <v>5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="24">
-        <v>35.219200000000001</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1.5205</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="O9" s="13">
-        <f>M9+N9</f>
-        <v>2.3864999999999998</v>
-      </c>
-      <c r="P9" s="13">
-        <v>14.188800000000001</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>11.678599999999999</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0.3972</v>
-      </c>
-      <c r="S9" s="7">
-        <v>10.6243</v>
-      </c>
-      <c r="T9" s="13">
-        <v>6.9645999999999999</v>
-      </c>
-      <c r="V9" s="32">
-        <v>1649</v>
-      </c>
-      <c r="W9" s="32">
-        <v>491</v>
-      </c>
-      <c r="X9" s="32">
-        <v>849</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>663</v>
-      </c>
-      <c r="Z9" s="32">
-        <v>283</v>
-      </c>
-      <c r="AA9" s="32">
-        <v>221</v>
-      </c>
-      <c r="AB9" s="34">
-        <v>836</v>
-      </c>
-      <c r="AC9" s="34">
-        <v>307</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>8</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="9">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="25">
-        <v>27.6388</v>
+      <c r="L10" s="6">
+        <v>24.503900000000002</v>
       </c>
       <c r="M10" s="7">
-        <v>1.6237999999999999</v>
+        <v>1.5172000000000001</v>
       </c>
       <c r="N10" s="7">
-        <v>1.3385</v>
-      </c>
-      <c r="O10" s="11">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O10" s="7">
         <f>M10+N10</f>
-        <v>2.9622999999999999</v>
-      </c>
-      <c r="P10" s="11">
-        <v>11.053800000000001</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>7.8822999999999999</v>
+        <v>2.5402</v>
+      </c>
+      <c r="P10" s="7">
+        <v>6.4363999999999999</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>6.0552999999999999</v>
       </c>
       <c r="R10" s="6">
-        <v>0.41660000000000003</v>
+        <v>0.39529999999999998</v>
       </c>
       <c r="S10" s="7">
-        <v>7.3109000000000002</v>
-      </c>
-      <c r="T10" s="11">
-        <v>5.7397999999999998</v>
-      </c>
-      <c r="V10" s="32">
-        <v>1305</v>
-      </c>
-      <c r="W10" s="32">
-        <v>442</v>
-      </c>
-      <c r="X10" s="32">
-        <v>841</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>617</v>
-      </c>
-      <c r="Z10" s="32">
-        <v>280.33333333333297</v>
-      </c>
-      <c r="AA10" s="32">
-        <v>205.666666666666</v>
-      </c>
-      <c r="AB10" s="34">
-        <v>798</v>
-      </c>
-      <c r="AC10" s="34">
-        <v>252</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>6</v>
+        <v>5.4214000000000002</v>
+      </c>
+      <c r="T10" s="7">
+        <v>9.4710000000000001</v>
+      </c>
+      <c r="V10" s="27">
+        <v>487</v>
+      </c>
+      <c r="W10" s="27">
+        <v>148</v>
+      </c>
+      <c r="X10" s="27">
+        <v>300</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>220</v>
+      </c>
+      <c r="Z10" s="27">
+        <v>300</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>220</v>
+      </c>
+      <c r="AB10" s="28">
+        <v>1273</v>
+      </c>
+      <c r="AC10" s="28">
+        <v>322</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="7">
         <v>43.564700000000002</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="7">
         <v>1.6375999999999999</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="7">
         <v>1.0741000000000001</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="7">
         <f>M11+N11</f>
         <v>2.7117</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="7">
         <v>21.645</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="7">
         <v>12.289199999999999</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="6">
         <v>0.44419999999999998</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="7">
         <v>10.7524</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="7">
         <v>6.9180000000000001</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="25">
         <v>1234</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="25">
         <v>578</v>
       </c>
-      <c r="X11" s="31">
+      <c r="X11" s="25">
         <v>1425</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="25">
         <v>1111</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="25">
         <v>285</v>
       </c>
-      <c r="AA11" s="31">
+      <c r="AA11" s="25">
         <v>222.2</v>
       </c>
-      <c r="AB11" s="30">
+      <c r="AB11" s="24">
         <v>1036</v>
       </c>
-      <c r="AC11" s="30">
+      <c r="AC11" s="24">
         <v>359</v>
       </c>
-      <c r="AD11" s="19">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="22">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="19"/>
+      <c r="AD11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="19">
-        <v>5</v>
-      </c>
-      <c r="G12" s="19">
-        <v>3</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="7">
         <v>42.935400000000001</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="7">
         <v>1.7733000000000001</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="7">
         <v>1.0573999999999999</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="7">
         <f>M12+N12</f>
         <v>2.8307000000000002</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="7">
         <v>21.552600000000002</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="7">
         <v>9.7521000000000004</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="6">
         <v>0.45590000000000003</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="7">
         <v>8.1346000000000007</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="7">
         <v>8.7988999999999997</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="25">
         <v>1803</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="25">
         <v>920</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="25">
         <v>1458</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="25">
         <v>1174</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z12" s="25">
         <v>291.60000000000002</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA12" s="25">
         <v>234.8</v>
       </c>
-      <c r="AB12" s="30">
+      <c r="AB12" s="24">
         <v>1083</v>
       </c>
-      <c r="AC12" s="30">
+      <c r="AC12" s="24">
         <v>313</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="1">
         <v>8</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12">
         <v>8</v>
       </c>
-      <c r="AF12" s="19"/>
     </row>
     <row r="13" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>29.283000000000001</v>
       </c>
       <c r="M13" s="7">
@@ -9883,14 +9857,14 @@
       <c r="N13" s="7">
         <v>0.83220000000000005</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <f>M13+N13</f>
         <v>2.5678000000000001</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>11.662000000000001</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>9.4343000000000004</v>
       </c>
       <c r="R13" s="6">
@@ -9899,634 +9873,630 @@
       <c r="S13" s="7">
         <v>8.0478000000000005</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>5.6180000000000003</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="23">
         <v>1667</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="23">
         <v>676</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="23">
         <v>1312</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="23">
         <v>985</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="23">
         <v>262.39999999999998</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="23">
         <v>197</v>
       </c>
-      <c r="AB13" s="30">
+      <c r="AB13" s="24">
         <v>862</v>
       </c>
-      <c r="AC13" s="30">
+      <c r="AC13" s="24">
         <v>246</v>
       </c>
-      <c r="AD13" s="9">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="10">
+      <c r="AD13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="8">
         <v>23</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="12">
-        <v>5</v>
-      </c>
-      <c r="G14" s="12">
-        <v>3</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="20">
+        <v>29.840499999999999</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1.0221</v>
+      </c>
+      <c r="O14" s="10">
+        <f>M14+N14</f>
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="P14" s="10">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>10.3329</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="S14" s="7">
+        <v>9.2669999999999995</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10.764699999999999</v>
+      </c>
+      <c r="V14" s="26">
+        <v>487</v>
+      </c>
+      <c r="W14" s="26">
+        <v>161</v>
+      </c>
+      <c r="X14" s="26">
+        <v>296</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>232</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>296</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>232</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>1260</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>406</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="24">
-        <v>36.7517</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1.7266999999999999</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="O14" s="13">
-        <f>M14+N14</f>
-        <v>2.6492</v>
-      </c>
-      <c r="P14" s="13">
-        <v>15.6648</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>10.7546</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0.4481</v>
-      </c>
-      <c r="S14" s="7">
-        <v>10.1648</v>
-      </c>
-      <c r="T14" s="13">
-        <v>7.6822999999999997</v>
-      </c>
-      <c r="V14" s="32">
-        <v>1158</v>
-      </c>
-      <c r="W14" s="32">
-        <v>476</v>
-      </c>
-      <c r="X14" s="32">
-        <v>1042</v>
-      </c>
-      <c r="Y14" s="32">
-        <v>780</v>
-      </c>
-      <c r="Z14" s="32">
-        <v>260.5</v>
-      </c>
-      <c r="AA14" s="32">
-        <v>195</v>
-      </c>
-      <c r="AB14" s="34">
-        <v>849</v>
-      </c>
-      <c r="AC14" s="34">
-        <v>308</v>
-      </c>
-      <c r="AD14" s="12">
+      <c r="L15" s="19">
+        <v>38.019799999999996</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.79</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="O15" s="12">
+        <f>M15+N15</f>
+        <v>2.8167999999999997</v>
+      </c>
+      <c r="P15" s="12">
+        <v>14.771699999999999</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="S15" s="7">
+        <v>13.812200000000001</v>
+      </c>
+      <c r="T15" s="12">
+        <v>5.9924999999999997</v>
+      </c>
+      <c r="V15" s="26">
+        <v>1162</v>
+      </c>
+      <c r="W15" s="26">
+        <v>562</v>
+      </c>
+      <c r="X15" s="26">
+        <v>1028</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>814</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>257</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>203.5</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>852</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>339</v>
+      </c>
+      <c r="AD15" s="11">
         <v>4</v>
       </c>
-      <c r="AE14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="19">
-        <v>5</v>
-      </c>
-      <c r="G15" s="19">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="AE15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="21">
-        <v>27.408100000000001</v>
-      </c>
-      <c r="M15" s="20">
-        <v>1.3975</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0.84730000000000005</v>
-      </c>
-      <c r="O15" s="20">
-        <f>M15+N15</f>
-        <v>2.2448000000000001</v>
-      </c>
-      <c r="P15" s="20">
-        <v>7.4112</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>10.1774</v>
-      </c>
-      <c r="R15" s="21">
-        <v>0.41830000000000001</v>
-      </c>
-      <c r="S15" s="20">
-        <v>8.4649000000000001</v>
-      </c>
-      <c r="T15" s="20">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="V15" s="33">
-        <v>788</v>
-      </c>
-      <c r="W15" s="33">
-        <v>268</v>
-      </c>
-      <c r="X15" s="33">
-        <v>572</v>
-      </c>
-      <c r="Y15" s="33">
-        <v>460</v>
-      </c>
-      <c r="Z15" s="33">
-        <v>286</v>
-      </c>
-      <c r="AA15" s="33">
-        <v>230</v>
-      </c>
-      <c r="AB15" s="34">
-        <v>807</v>
-      </c>
-      <c r="AC15" s="34">
-        <v>296</v>
-      </c>
-      <c r="AD15" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="22">
-        <v>3</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="9">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="25">
-        <v>22.1127</v>
+      <c r="K16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="19">
+        <v>35.828200000000002</v>
       </c>
       <c r="M16" s="7">
-        <v>1.7395</v>
+        <v>1.6232</v>
       </c>
       <c r="N16" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="O16" s="11">
+        <v>1.0330999999999999</v>
+      </c>
+      <c r="O16" s="12">
         <f>M16+N16</f>
-        <v>2.7595000000000001</v>
-      </c>
-      <c r="P16" s="11">
-        <v>9.6204000000000001</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>4.9195000000000002</v>
+        <v>2.6562999999999999</v>
+      </c>
+      <c r="P16" s="12">
+        <v>16.8873</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>9.5236000000000001</v>
       </c>
       <c r="R16" s="6">
-        <v>0.40550000000000003</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="S16" s="7">
-        <v>4.3106999999999998</v>
-      </c>
-      <c r="T16" s="11">
-        <v>4.8125999999999998</v>
-      </c>
-      <c r="V16" s="32">
-        <v>794</v>
-      </c>
-      <c r="W16" s="32">
-        <v>202</v>
-      </c>
-      <c r="X16" s="32">
-        <v>294</v>
-      </c>
-      <c r="Y16" s="32">
-        <v>228</v>
-      </c>
-      <c r="Z16" s="32">
-        <v>294</v>
-      </c>
-      <c r="AA16" s="32">
-        <v>228</v>
-      </c>
-      <c r="AB16" s="34">
-        <v>793</v>
-      </c>
-      <c r="AC16" s="34">
-        <v>236</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>3</v>
+        <v>7.9451000000000001</v>
+      </c>
+      <c r="T16" s="12">
+        <v>6.7601000000000004</v>
+      </c>
+      <c r="V16" s="26">
+        <v>1737</v>
+      </c>
+      <c r="W16" s="26">
+        <v>445</v>
+      </c>
+      <c r="X16" s="26">
+        <v>838</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>678</v>
+      </c>
+      <c r="Z16" s="26">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>226</v>
+      </c>
+      <c r="AB16" s="28">
+        <v>823</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>364</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>5</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>17</v>
-      </c>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="19">
+        <v>35.219200000000001</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.5205</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="O17" s="12">
+        <f>M17+N17</f>
+        <v>2.3864999999999998</v>
+      </c>
+      <c r="P17" s="12">
+        <v>14.188800000000001</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>11.678599999999999</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.3972</v>
+      </c>
+      <c r="S17" s="7">
+        <v>10.6243</v>
+      </c>
+      <c r="T17" s="12">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="V17" s="26">
+        <v>1649</v>
+      </c>
+      <c r="W17" s="26">
+        <v>491</v>
+      </c>
+      <c r="X17" s="26">
+        <v>849</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>663</v>
+      </c>
+      <c r="Z17" s="26">
+        <v>283</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>221</v>
+      </c>
+      <c r="AB17" s="28">
+        <v>836</v>
+      </c>
+      <c r="AC17" s="28">
+        <v>307</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="19">
+        <v>36.7517</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.7266999999999999</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="O18" s="12">
+        <f>M18+N18</f>
+        <v>2.6492</v>
+      </c>
+      <c r="P18" s="12">
+        <v>15.6648</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>10.7546</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.4481</v>
+      </c>
+      <c r="S18" s="7">
+        <v>10.1648</v>
+      </c>
+      <c r="T18" s="12">
+        <v>7.6822999999999997</v>
+      </c>
+      <c r="V18" s="26">
+        <v>1158</v>
+      </c>
+      <c r="W18" s="26">
+        <v>476</v>
+      </c>
+      <c r="X18" s="26">
+        <v>1042</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>780</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>260.5</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>195</v>
+      </c>
+      <c r="AB18" s="28">
+        <v>849</v>
+      </c>
+      <c r="AC18" s="28">
+        <v>308</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="15">
-        <v>5</v>
-      </c>
-      <c r="G17" s="15">
-        <v>3</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="C19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="26">
-        <v>49.535699999999999</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2.0184000000000002</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="O17" s="16">
-        <f>M17+N17</f>
-        <v>2.9837000000000002</v>
-      </c>
-      <c r="P17" s="16">
-        <v>25.7651</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>9.3183000000000007</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0.46350000000000002</v>
-      </c>
-      <c r="S17" s="7">
-        <v>8.0381</v>
-      </c>
-      <c r="T17" s="16">
-        <v>11.467499999999999</v>
-      </c>
-      <c r="V17" s="32">
-        <v>5553</v>
-      </c>
-      <c r="W17" s="32">
-        <v>1599</v>
-      </c>
-      <c r="X17" s="32">
-        <v>1431</v>
-      </c>
-      <c r="Y17" s="32">
-        <v>1103</v>
-      </c>
-      <c r="Z17" s="32">
-        <v>286.2</v>
-      </c>
-      <c r="AA17" s="32">
-        <v>220.6</v>
-      </c>
-      <c r="AB17" s="34">
-        <v>861</v>
-      </c>
-      <c r="AC17" s="34">
-        <v>375</v>
-      </c>
-      <c r="AD17" s="15">
-        <v>8</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>30</v>
-      </c>
-      <c r="AF17" s="1" t="s">
+      <c r="K19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="19">
+        <v>33.251600000000003</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.4234</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1.0377000000000001</v>
+      </c>
+      <c r="O19" s="12">
+        <f>M19+N19</f>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="P19" s="12">
+        <v>13.706200000000001</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>9.2213999999999992</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.4093</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8.6508000000000003</v>
+      </c>
+      <c r="T19" s="12">
+        <v>7.8621999999999996</v>
+      </c>
+      <c r="V19" s="26">
+        <v>1328</v>
+      </c>
+      <c r="W19" s="26">
+        <v>586</v>
+      </c>
+      <c r="X19" s="26">
+        <v>1152</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>902</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>288</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>225.5</v>
+      </c>
+      <c r="AB19" s="28">
+        <v>823</v>
+      </c>
+      <c r="AC19" s="28">
+        <v>296</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="12">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="13" t="s">
+    <row r="20" spans="1:32" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="24">
-        <v>33.251600000000003</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1.4234</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1.0377000000000001</v>
-      </c>
-      <c r="O18" s="13">
-        <f>M18+N18</f>
-        <v>2.4611000000000001</v>
-      </c>
-      <c r="P18" s="13">
-        <v>13.706200000000001</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>9.2213999999999992</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0.4093</v>
-      </c>
-      <c r="S18" s="7">
-        <v>8.6508000000000003</v>
-      </c>
-      <c r="T18" s="13">
-        <v>7.8621999999999996</v>
-      </c>
-      <c r="V18" s="32">
-        <v>1328</v>
-      </c>
-      <c r="W18" s="32">
-        <v>586</v>
-      </c>
-      <c r="X18" s="32">
-        <v>1152</v>
-      </c>
-      <c r="Y18" s="32">
-        <v>902</v>
-      </c>
-      <c r="Z18" s="32">
-        <v>288</v>
-      </c>
-      <c r="AA18" s="32">
-        <v>225.5</v>
-      </c>
-      <c r="AB18" s="34">
-        <v>823</v>
-      </c>
-      <c r="AC18" s="34">
-        <v>296</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="19">
-        <v>3</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="21">
-        <v>32.470399999999998</v>
-      </c>
-      <c r="M19" s="20">
-        <v>1.3375999999999999</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="O19" s="20">
-        <f>M19+N19</f>
-        <v>2.1454</v>
-      </c>
-      <c r="P19" s="20">
-        <v>14.038600000000001</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>9.73</v>
-      </c>
-      <c r="R19" s="21">
-        <v>0.45040000000000002</v>
-      </c>
-      <c r="S19" s="20">
-        <v>8.5277999999999992</v>
-      </c>
-      <c r="T19" s="20">
-        <v>6.5545999999999998</v>
-      </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="33">
-        <v>1746</v>
-      </c>
-      <c r="W19" s="33">
-        <v>562</v>
-      </c>
-      <c r="X19" s="33">
-        <v>1113</v>
-      </c>
-      <c r="Y19" s="33">
-        <v>856</v>
-      </c>
-      <c r="Z19" s="33">
-        <v>278.25</v>
-      </c>
-      <c r="AA19" s="33">
-        <v>214</v>
-      </c>
-      <c r="AB19" s="34">
-        <v>809</v>
-      </c>
-      <c r="AC19" s="34">
-        <v>251</v>
-      </c>
-      <c r="AD19" s="19">
-        <v>4</v>
-      </c>
-      <c r="AE19" s="22">
-        <v>8</v>
-      </c>
-      <c r="AF19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" s="19" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="12">
-        <v>5</v>
-      </c>
-      <c r="G20" s="12">
-        <v>3</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>36.6417</v>
       </c>
       <c r="M20" s="7">
@@ -10535,14 +10505,14 @@
       <c r="N20" s="7">
         <v>0.93799999999999994</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f>M20+N20</f>
         <v>2.6948999999999996</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <v>12.5382</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>12.494300000000001</v>
       </c>
       <c r="R20" s="6">
@@ -10551,264 +10521,258 @@
       <c r="S20" s="7">
         <v>11.8475</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="12">
         <v>8.9131999999999998</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="29">
+      <c r="V20" s="23">
         <v>1162</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="23">
         <v>545</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="23">
         <v>1028</v>
       </c>
-      <c r="Y20" s="29">
+      <c r="Y20" s="23">
         <v>785</v>
       </c>
-      <c r="Z20" s="29">
+      <c r="Z20" s="23">
         <v>257</v>
       </c>
-      <c r="AA20" s="29">
+      <c r="AA20" s="23">
         <v>196.25</v>
       </c>
-      <c r="AB20" s="30">
+      <c r="AB20" s="24">
         <v>859</v>
       </c>
-      <c r="AC20" s="30">
+      <c r="AC20" s="24">
         <v>479</v>
       </c>
-      <c r="AD20" s="12">
+      <c r="AD20" s="11">
         <v>4</v>
       </c>
-      <c r="AE20" s="14">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" s="19" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>22</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="19">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19">
-        <v>3</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.17</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="21">
-        <v>24.503900000000002</v>
-      </c>
-      <c r="M21" s="20">
-        <v>1.5172000000000001</v>
-      </c>
-      <c r="N21" s="20">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="O21" s="20">
+      <c r="AE20" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="6">
+        <v>32.470399999999998</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1.3375999999999999</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="O21" s="7">
         <f>M21+N21</f>
-        <v>2.5402</v>
-      </c>
-      <c r="P21" s="20">
-        <v>6.4363999999999999</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>6.0552999999999999</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="S21" s="20">
-        <v>5.4214000000000002</v>
-      </c>
-      <c r="T21" s="20">
-        <v>9.4710000000000001</v>
-      </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="33">
-        <v>487</v>
-      </c>
-      <c r="W21" s="33">
-        <v>148</v>
-      </c>
-      <c r="X21" s="33">
-        <v>300</v>
-      </c>
-      <c r="Y21" s="33">
-        <v>220</v>
-      </c>
-      <c r="Z21" s="33">
-        <v>300</v>
-      </c>
-      <c r="AA21" s="33">
-        <v>220</v>
-      </c>
-      <c r="AB21" s="34">
-        <v>1273</v>
-      </c>
-      <c r="AC21" s="34">
-        <v>322</v>
-      </c>
-      <c r="AD21" s="19">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="19" t="s">
+        <v>2.1454</v>
+      </c>
+      <c r="P21" s="7">
+        <v>14.038600000000001</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>9.73</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="S21" s="7">
+        <v>8.5277999999999992</v>
+      </c>
+      <c r="T21" s="7">
+        <v>6.5545999999999998</v>
+      </c>
+      <c r="V21" s="27">
+        <v>1746</v>
+      </c>
+      <c r="W21" s="27">
+        <v>562</v>
+      </c>
+      <c r="X21" s="27">
+        <v>1113</v>
+      </c>
+      <c r="Y21" s="27">
+        <v>856</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>278.25</v>
+      </c>
+      <c r="AA21" s="27">
+        <v>214</v>
+      </c>
+      <c r="AB21" s="28">
+        <v>809</v>
+      </c>
+      <c r="AC21" s="28">
+        <v>251</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="9">
-        <v>5</v>
-      </c>
-      <c r="G22" s="9">
-        <v>3</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="25">
-        <v>29.840499999999999</v>
+    </row>
+    <row r="22" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="14">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="21">
+        <v>49.535699999999999</v>
       </c>
       <c r="M22" s="7">
-        <v>1.5773999999999999</v>
+        <v>2.0184000000000002</v>
       </c>
       <c r="N22" s="7">
-        <v>1.0221</v>
-      </c>
-      <c r="O22" s="11">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="O22" s="15">
         <f>M22+N22</f>
-        <v>2.5994999999999999</v>
-      </c>
-      <c r="P22" s="11">
-        <v>6.1425000000000001</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>10.3329</v>
+        <v>2.9837000000000002</v>
+      </c>
+      <c r="P22" s="15">
+        <v>25.7651</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>9.3183000000000007</v>
       </c>
       <c r="R22" s="6">
-        <v>0.42030000000000001</v>
+        <v>0.46350000000000002</v>
       </c>
       <c r="S22" s="7">
-        <v>9.2669999999999995</v>
-      </c>
-      <c r="T22" s="11">
-        <v>10.764699999999999</v>
-      </c>
-      <c r="V22" s="32">
-        <v>487</v>
-      </c>
-      <c r="W22" s="32">
-        <v>161</v>
-      </c>
-      <c r="X22" s="32">
-        <v>296</v>
-      </c>
-      <c r="Y22" s="32">
-        <v>232</v>
-      </c>
-      <c r="Z22" s="32">
-        <v>296</v>
-      </c>
-      <c r="AA22" s="32">
-        <v>232</v>
-      </c>
-      <c r="AB22" s="34">
-        <v>1260</v>
-      </c>
-      <c r="AC22" s="34">
-        <v>406</v>
-      </c>
-      <c r="AD22" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="10">
-        <v>1</v>
+        <v>8.0381</v>
+      </c>
+      <c r="T22" s="15">
+        <v>11.467499999999999</v>
+      </c>
+      <c r="V22" s="26">
+        <v>5553</v>
+      </c>
+      <c r="W22" s="26">
+        <v>1599</v>
+      </c>
+      <c r="X22" s="26">
+        <v>1431</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>1103</v>
+      </c>
+      <c r="Z22" s="26">
+        <v>286.2</v>
+      </c>
+      <c r="AA22" s="26">
+        <v>220.6</v>
+      </c>
+      <c r="AB22" s="28">
+        <v>861</v>
+      </c>
+      <c r="AC22" s="28">
+        <v>375</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>30</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>25</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
-      <c r="G23" s="15">
-        <v>3</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="14">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="21">
         <v>50.580199999999998</v>
       </c>
       <c r="M23" s="7">
@@ -10817,14 +10781,14 @@
       <c r="N23" s="7">
         <v>0.94840000000000002</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="15">
         <f>M23+N23</f>
         <v>2.4708999999999999</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <v>25.273800000000001</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="15">
         <v>12.363</v>
       </c>
       <c r="R23" s="6">
@@ -10833,75 +10797,75 @@
       <c r="S23" s="7">
         <v>11.8233</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="15">
         <v>10.471399999999999</v>
       </c>
-      <c r="V23" s="32">
+      <c r="V23" s="26">
         <v>5893</v>
       </c>
-      <c r="W23" s="32">
+      <c r="W23" s="26">
         <v>1568</v>
       </c>
-      <c r="X23" s="32">
+      <c r="X23" s="26">
         <v>1423</v>
       </c>
-      <c r="Y23" s="32">
+      <c r="Y23" s="26">
         <v>1159</v>
       </c>
-      <c r="Z23" s="32">
+      <c r="Z23" s="26">
         <v>284.60000000000002</v>
       </c>
-      <c r="AA23" s="32">
+      <c r="AA23" s="26">
         <v>231.8</v>
       </c>
-      <c r="AB23" s="34">
+      <c r="AB23" s="28">
         <v>845</v>
       </c>
-      <c r="AC23" s="34">
+      <c r="AC23" s="28">
         <v>523</v>
       </c>
-      <c r="AD23" s="15">
+      <c r="AD23" s="14">
         <v>8</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AE23" s="16">
         <v>32</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+    <row r="24" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>26</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="15">
-        <v>5</v>
-      </c>
-      <c r="G24" s="15">
-        <v>3</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="F24" s="14">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14">
+        <v>3</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="21">
         <v>50.623600000000003</v>
       </c>
       <c r="M24" s="7">
@@ -10910,14 +10874,14 @@
       <c r="N24" s="7">
         <v>1.0491999999999999</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="15">
         <f>M24+N24</f>
         <v>2.8231000000000002</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="15">
         <v>30.735800000000001</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="15">
         <v>10.813599999999999</v>
       </c>
       <c r="R24" s="6">
@@ -10926,44 +10890,44 @@
       <c r="S24" s="7">
         <v>10.1661</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="15">
         <v>6.2497999999999996</v>
       </c>
-      <c r="V24" s="32">
+      <c r="V24" s="26">
         <v>5893</v>
       </c>
-      <c r="W24" s="32">
+      <c r="W24" s="26">
         <v>1284</v>
       </c>
-      <c r="X24" s="32">
+      <c r="X24" s="26">
         <v>1390</v>
       </c>
-      <c r="Y24" s="32">
+      <c r="Y24" s="26">
         <v>1091</v>
       </c>
-      <c r="Z24" s="32">
+      <c r="Z24" s="26">
         <v>278</v>
       </c>
-      <c r="AA24" s="32">
+      <c r="AA24" s="26">
         <v>218.2</v>
       </c>
-      <c r="AB24" s="34">
+      <c r="AB24" s="28">
         <v>855</v>
       </c>
-      <c r="AC24" s="34">
+      <c r="AC24" s="28">
         <v>349</v>
       </c>
-      <c r="AD24" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="17">
+      <c r="AD24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="16">
         <v>32</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -10989,18 +10953,50 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" si="0"/>
-        <v>0.43128571428571433</v>
+        <v>0.43128571428571438</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" si="0"/>
-        <v>8.9122619047619054</v>
+        <v>8.9122619047619036</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
         <v>7.4985476190476179</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="7">
+        <f>AVERAGE(V4:V24)</f>
+        <v>1824.9047619047619</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" ref="W26:AC26" si="1">AVERAGE(W4:W24)</f>
+        <v>593.38095238095241</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="1"/>
+        <v>721.61904761904759</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="1"/>
+        <v>282.06984126984128</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="1"/>
+        <v>217.31031746031744</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="1"/>
+        <v>915.47619047619048</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="1"/>
+        <v>326.8095238095238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -11009,35 +11005,35 @@
         <v>22.1127</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27:T27" si="1">MIN(M4:M24)</f>
+        <f t="shared" ref="M27:T27" si="2">MIN(M4:M24)</f>
         <v>1.3375999999999999</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80779999999999996</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1425000000000001</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9195000000000002</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39529999999999998</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3106999999999998</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5091000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -11046,35 +11042,35 @@
         <v>50.623600000000003</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28:T28" si="2">MAX(M4:M24)</f>
+        <f t="shared" ref="M28:T28" si="3">MAX(M4:M24)</f>
         <v>2.0184000000000002</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3385</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.735800000000001</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.437900000000001</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46350000000000002</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.812200000000001</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.467499999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -11111,7 +11107,7 @@
       <c r="N30" s="1">
         <v>1.0468999999999999</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="18">
         <f>M30+N30</f>
         <v>2.5547</v>
       </c>
@@ -11140,11 +11136,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD31"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD32"/>
       <c r="AE32" s="1"/>
     </row>
@@ -11207,7 +11203,7 @@
       <c r="C44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>76</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -11249,7 +11245,7 @@
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AG24">
-      <sortCondition ref="A3:A24"/>
+      <sortCondition ref="K3:K24"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
